--- a/raw_data/20200818_saline/20200818_Sensor3_Test_6.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_6.xlsx
@@ -1,523 +1,939 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8B7BD3-FB6E-46AE-ACD9-981C7989A944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>5057.911888</v>
+        <v>5057.9118879999996</v>
       </c>
       <c r="B2" s="1">
         <v>1.404976</v>
       </c>
       <c r="C2" s="1">
-        <v>1144.540000</v>
+        <v>1144.54</v>
       </c>
       <c r="D2" s="1">
-        <v>-257.575000</v>
+        <v>-257.57499999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>5068.312958</v>
+        <v>5068.3129580000004</v>
       </c>
       <c r="G2" s="1">
-        <v>1.407865</v>
+        <v>1.4078649999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1165.990000</v>
+        <v>1165.99</v>
       </c>
       <c r="I2" s="1">
-        <v>-216.033000</v>
+        <v>-216.03299999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>5078.732417</v>
+        <v>5078.7324170000002</v>
       </c>
       <c r="L2" s="1">
-        <v>1.410759</v>
+        <v>1.4107590000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1193.310000</v>
+        <v>1193.31</v>
       </c>
       <c r="N2" s="1">
-        <v>-149.603000</v>
+        <v>-149.60300000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>5089.812081</v>
@@ -526,315 +942,315 @@
         <v>1.413837</v>
       </c>
       <c r="R2" s="1">
-        <v>1200.880000</v>
+        <v>1200.8800000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.499000</v>
+        <v>-127.499</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>5100.712168</v>
       </c>
       <c r="V2" s="1">
-        <v>1.416864</v>
+        <v>1.4168639999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1207.850000</v>
+        <v>1207.8499999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.427000</v>
+        <v>-106.42700000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>5111.093397</v>
+        <v>5111.0933969999996</v>
       </c>
       <c r="AA2" s="1">
         <v>1.419748</v>
       </c>
       <c r="AB2" s="1">
-        <v>1215.020000</v>
+        <v>1215.02</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.414500</v>
+        <v>-89.414500000000004</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>5121.617015</v>
+        <v>5121.6170149999998</v>
       </c>
       <c r="AF2" s="1">
         <v>1.422671</v>
       </c>
       <c r="AG2" s="1">
-        <v>1219.520000</v>
+        <v>1219.52</v>
       </c>
       <c r="AH2" s="1">
-        <v>-84.874300</v>
+        <v>-84.874300000000005</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>5132.044559</v>
+        <v>5132.0445589999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>1.425568</v>
+        <v>1.4255679999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1226.540000</v>
+        <v>1226.54</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.062600</v>
+        <v>-88.062600000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>5142.249598</v>
+        <v>5142.2495980000003</v>
       </c>
       <c r="AP2" s="1">
-        <v>1.428403</v>
+        <v>1.4284030000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1234.270000</v>
+        <v>1234.27</v>
       </c>
       <c r="AR2" s="1">
-        <v>-99.649500</v>
+        <v>-99.649500000000003</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>5153.601534</v>
+        <v>5153.6015340000004</v>
       </c>
       <c r="AU2" s="1">
-        <v>1.431556</v>
+        <v>1.4315560000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1244.080000</v>
+        <v>1244.08</v>
       </c>
       <c r="AW2" s="1">
-        <v>-118.503000</v>
+        <v>-118.503</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>5164.733744</v>
+        <v>5164.7337440000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>1.434648</v>
+        <v>1.4346479999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1252.280000</v>
+        <v>1252.28</v>
       </c>
       <c r="BB2" s="1">
-        <v>-135.583000</v>
+        <v>-135.583</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>5175.404209</v>
+        <v>5175.4042090000003</v>
       </c>
       <c r="BE2" s="1">
-        <v>1.437612</v>
+        <v>1.4376119999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1291.220000</v>
+        <v>1291.22</v>
       </c>
       <c r="BG2" s="1">
-        <v>-215.712000</v>
+        <v>-215.71199999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>5186.068689</v>
+        <v>5186.0686889999997</v>
       </c>
       <c r="BJ2" s="1">
-        <v>1.440575</v>
+        <v>1.4405749999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1358.240000</v>
+        <v>1358.24</v>
       </c>
       <c r="BL2" s="1">
-        <v>-349.984000</v>
+        <v>-349.98399999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>5196.831845</v>
+        <v>5196.8318449999997</v>
       </c>
       <c r="BO2" s="1">
-        <v>1.443564</v>
+        <v>1.4435640000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1468.080000</v>
+        <v>1468.08</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-570.417000</v>
+        <v>-570.41700000000003</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>5207.581141</v>
+        <v>5207.5811409999997</v>
       </c>
       <c r="BT2" s="1">
-        <v>1.446550</v>
+        <v>1.44655</v>
       </c>
       <c r="BU2" s="1">
-        <v>1595.760000</v>
+        <v>1595.76</v>
       </c>
       <c r="BV2" s="1">
-        <v>-821.500000</v>
+        <v>-821.5</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>5218.949448</v>
+        <v>5218.9494480000003</v>
       </c>
       <c r="BY2" s="1">
         <v>1.449708</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1743.500000</v>
+        <v>1743.5</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1095.200000</v>
+        <v>-1095.2</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>5229.835690</v>
+        <v>5229.8356899999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>1.452732</v>
+        <v>1.4527319999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2154.810000</v>
+        <v>2154.81</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1765.900000</v>
+        <v>-1765.9</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>5058.300910</v>
+        <v>5058.3009099999999</v>
       </c>
       <c r="B3" s="1">
         <v>1.405084</v>
       </c>
       <c r="C3" s="1">
-        <v>1144.440000</v>
+        <v>1144.44</v>
       </c>
       <c r="D3" s="1">
-        <v>-257.675000</v>
+        <v>-257.67500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>5068.655694</v>
       </c>
       <c r="G3" s="1">
-        <v>1.407960</v>
+        <v>1.4079600000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1166.120000</v>
+        <v>1166.1199999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-215.622000</v>
+        <v>-215.62200000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>5079.116320</v>
+        <v>5079.1163200000001</v>
       </c>
       <c r="L3" s="1">
         <v>1.410866</v>
       </c>
       <c r="M3" s="1">
-        <v>1193.340000</v>
+        <v>1193.3399999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-149.606000</v>
+        <v>-149.60599999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>5090.537202</v>
+        <v>5090.5372020000004</v>
       </c>
       <c r="Q3" s="1">
-        <v>1.414038</v>
+        <v>1.4140379999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1200.870000</v>
+        <v>1200.8699999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.441000</v>
+        <v>-127.441</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>5101.049939</v>
+        <v>5101.0499390000004</v>
       </c>
       <c r="V3" s="1">
-        <v>1.416958</v>
+        <v>1.4169579999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1207.920000</v>
+        <v>1207.92</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.444000</v>
+        <v>-106.444</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>5111.431174</v>
+        <v>5111.4311740000003</v>
       </c>
       <c r="AA3" s="1">
         <v>1.419842</v>
       </c>
       <c r="AB3" s="1">
-        <v>1215.260000</v>
+        <v>1215.26</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.404900</v>
+        <v>-89.404899999999998</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>5121.976646</v>
+        <v>5121.9766460000001</v>
       </c>
       <c r="AF3" s="1">
         <v>1.422771</v>
       </c>
       <c r="AG3" s="1">
-        <v>1219.520000</v>
+        <v>1219.52</v>
       </c>
       <c r="AH3" s="1">
-        <v>-84.858800</v>
+        <v>-84.858800000000002</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>5132.402521</v>
@@ -843,300 +1259,300 @@
         <v>1.425667</v>
       </c>
       <c r="AL3" s="1">
-        <v>1226.490000</v>
+        <v>1226.49</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.071100</v>
+        <v>-88.071100000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>5142.962855</v>
+        <v>5142.9628549999998</v>
       </c>
       <c r="AP3" s="1">
         <v>1.428601</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1234.290000</v>
+        <v>1234.29</v>
       </c>
       <c r="AR3" s="1">
-        <v>-99.648700</v>
+        <v>-99.648700000000005</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>5154.043500</v>
+        <v>5154.0434999999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>1.431679</v>
+        <v>1.4316789999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1244.040000</v>
+        <v>1244.04</v>
       </c>
       <c r="AW3" s="1">
-        <v>-118.512000</v>
+        <v>-118.512</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>5165.168736</v>
+        <v>5165.1687359999996</v>
       </c>
       <c r="AZ3" s="1">
         <v>1.434769</v>
       </c>
       <c r="BA3" s="1">
-        <v>1252.280000</v>
+        <v>1252.28</v>
       </c>
       <c r="BB3" s="1">
-        <v>-135.581000</v>
+        <v>-135.58099999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>5175.767248</v>
+        <v>5175.7672480000001</v>
       </c>
       <c r="BE3" s="1">
         <v>1.437713</v>
       </c>
       <c r="BF3" s="1">
-        <v>1291.250000</v>
+        <v>1291.25</v>
       </c>
       <c r="BG3" s="1">
-        <v>-215.737000</v>
+        <v>-215.73699999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>5186.462513</v>
+        <v>5186.4625130000004</v>
       </c>
       <c r="BJ3" s="1">
-        <v>1.440684</v>
+        <v>1.4406840000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1358.230000</v>
+        <v>1358.23</v>
       </c>
       <c r="BL3" s="1">
-        <v>-349.979000</v>
+        <v>-349.97899999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>5197.242067</v>
+        <v>5197.2420670000001</v>
       </c>
       <c r="BO3" s="1">
         <v>1.443678</v>
       </c>
       <c r="BP3" s="1">
-        <v>1468.080000</v>
+        <v>1468.08</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-570.456000</v>
+        <v>-570.45600000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>5208.034981</v>
+        <v>5208.0349809999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>1.446676</v>
+        <v>1.4466760000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1595.810000</v>
+        <v>1595.81</v>
       </c>
       <c r="BV3" s="1">
-        <v>-821.547000</v>
+        <v>-821.54700000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>5219.127510</v>
+        <v>5219.1275100000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>1.449758</v>
+        <v>1.4497580000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1743.410000</v>
+        <v>1743.41</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1095.280000</v>
+        <v>-1095.28</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>5230.127786</v>
       </c>
       <c r="CD3" s="1">
-        <v>1.452813</v>
+        <v>1.4528129999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>2156.280000</v>
+        <v>2156.2800000000002</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1764.220000</v>
+        <v>-1764.22</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>5058.643451</v>
+        <v>5058.6434509999999</v>
       </c>
       <c r="B4" s="1">
         <v>1.405179</v>
       </c>
       <c r="C4" s="1">
-        <v>1144.540000</v>
+        <v>1144.54</v>
       </c>
       <c r="D4" s="1">
-        <v>-257.611000</v>
+        <v>-257.61099999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>5069.343148</v>
+        <v>5069.3431479999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1.408151</v>
+        <v>1.4081509999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1166.040000</v>
+        <v>1166.04</v>
       </c>
       <c r="I4" s="1">
-        <v>-216.006000</v>
+        <v>-216.006</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>5079.809230</v>
+        <v>5079.8092299999998</v>
       </c>
       <c r="L4" s="1">
-        <v>1.411058</v>
+        <v>1.4110579999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1193.210000</v>
+        <v>1193.21</v>
       </c>
       <c r="N4" s="1">
-        <v>-149.382000</v>
+        <v>-149.38200000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>5090.886417</v>
+        <v>5090.8864169999997</v>
       </c>
       <c r="Q4" s="1">
-        <v>1.414135</v>
+        <v>1.4141349999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1200.930000</v>
+        <v>1200.93</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.424000</v>
+        <v>-127.42400000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>5101.390658</v>
+        <v>5101.3906580000003</v>
       </c>
       <c r="V4" s="1">
-        <v>1.417053</v>
+        <v>1.4170529999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1207.970000</v>
+        <v>1207.97</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.484000</v>
+        <v>-106.48399999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>5111.783829</v>
       </c>
       <c r="AA4" s="1">
-        <v>1.419940</v>
+        <v>1.41994</v>
       </c>
       <c r="AB4" s="1">
-        <v>1215.100000</v>
+        <v>1215.0999999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.563100</v>
+        <v>-89.563100000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>5122.631830</v>
+        <v>5122.6318300000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>1.422953</v>
+        <v>1.4229529999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1219.540000</v>
+        <v>1219.54</v>
       </c>
       <c r="AH4" s="1">
-        <v>-84.916000</v>
+        <v>-84.915999999999997</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>5132.846473</v>
+        <v>5132.8464729999996</v>
       </c>
       <c r="AK4" s="1">
         <v>1.425791</v>
       </c>
       <c r="AL4" s="1">
-        <v>1226.520000</v>
+        <v>1226.52</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.014600</v>
+        <v>-88.014600000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>5143.371052</v>
+        <v>5143.3710520000004</v>
       </c>
       <c r="AP4" s="1">
         <v>1.428714</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1234.270000</v>
+        <v>1234.27</v>
       </c>
       <c r="AR4" s="1">
-        <v>-99.657700</v>
+        <v>-99.657700000000006</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>5154.408062</v>
+        <v>5154.4080620000004</v>
       </c>
       <c r="AU4" s="1">
-        <v>1.431780</v>
+        <v>1.4317800000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1244.060000</v>
+        <v>1244.06</v>
       </c>
       <c r="AW4" s="1">
-        <v>-118.490000</v>
+        <v>-118.49</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>5165.528335</v>
@@ -1145,377 +1561,377 @@
         <v>1.434869</v>
       </c>
       <c r="BA4" s="1">
-        <v>1252.290000</v>
+        <v>1252.29</v>
       </c>
       <c r="BB4" s="1">
-        <v>-135.544000</v>
+        <v>-135.54400000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>5176.128831</v>
       </c>
       <c r="BE4" s="1">
-        <v>1.437814</v>
+        <v>1.4378139999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1291.230000</v>
+        <v>1291.23</v>
       </c>
       <c r="BG4" s="1">
-        <v>-215.746000</v>
+        <v>-215.74600000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>5186.871217</v>
+        <v>5186.8712169999999</v>
       </c>
       <c r="BJ4" s="1">
         <v>1.440798</v>
       </c>
       <c r="BK4" s="1">
-        <v>1358.280000</v>
+        <v>1358.28</v>
       </c>
       <c r="BL4" s="1">
-        <v>-349.985000</v>
+        <v>-349.98500000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>5197.668595</v>
+        <v>5197.6685950000001</v>
       </c>
       <c r="BO4" s="1">
         <v>1.443797</v>
       </c>
       <c r="BP4" s="1">
-        <v>1468.120000</v>
+        <v>1468.12</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-570.521000</v>
+        <v>-570.52099999999996</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>5208.460549</v>
+        <v>5208.4605490000004</v>
       </c>
       <c r="BT4" s="1">
-        <v>1.446795</v>
+        <v>1.4467950000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1595.810000</v>
+        <v>1595.81</v>
       </c>
       <c r="BV4" s="1">
-        <v>-821.593000</v>
+        <v>-821.59299999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>5219.564022</v>
+        <v>5219.5640219999996</v>
       </c>
       <c r="BY4" s="1">
-        <v>1.449879</v>
+        <v>1.4498789999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1743.490000</v>
+        <v>1743.49</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1095.400000</v>
+        <v>-1095.4000000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>5230.645607</v>
+        <v>5230.6456070000004</v>
       </c>
       <c r="CD4" s="1">
-        <v>1.452957</v>
+        <v>1.4529570000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>2156.110000</v>
+        <v>2156.11</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1763.150000</v>
+        <v>-1763.15</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>5059.325486</v>
+        <v>5059.3254859999997</v>
       </c>
       <c r="B5" s="1">
         <v>1.405368</v>
       </c>
       <c r="C5" s="1">
-        <v>1144.530000</v>
+        <v>1144.53</v>
       </c>
       <c r="D5" s="1">
-        <v>-257.553000</v>
+        <v>-257.553</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>5069.688860</v>
+        <v>5069.6888600000002</v>
       </c>
       <c r="G5" s="1">
         <v>1.408247</v>
       </c>
       <c r="H5" s="1">
-        <v>1166.150000</v>
+        <v>1166.1500000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-216.109000</v>
+        <v>-216.10900000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>5080.154478</v>
+        <v>5080.1544780000004</v>
       </c>
       <c r="L5" s="1">
         <v>1.411154</v>
       </c>
       <c r="M5" s="1">
-        <v>1193.400000</v>
+        <v>1193.4000000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-149.649000</v>
+        <v>-149.649</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>5091.234079</v>
+        <v>5091.2340789999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>1.414232</v>
+        <v>1.4142319999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1200.940000</v>
+        <v>1200.94</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.448000</v>
+        <v>-127.44799999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>5102.043425</v>
+        <v>5102.0434249999998</v>
       </c>
       <c r="V5" s="1">
-        <v>1.417234</v>
+        <v>1.4172340000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1207.940000</v>
+        <v>1207.94</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.550000</v>
+        <v>-106.55</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>5112.436602</v>
+        <v>5112.4366019999998</v>
       </c>
       <c r="AA5" s="1">
         <v>1.420121</v>
       </c>
       <c r="AB5" s="1">
-        <v>1215.160000</v>
+        <v>1215.1600000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.363600</v>
+        <v>-89.363600000000005</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>5123.007824</v>
+        <v>5123.0078240000003</v>
       </c>
       <c r="AF5" s="1">
-        <v>1.423058</v>
+        <v>1.4230579999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1219.510000</v>
+        <v>1219.51</v>
       </c>
       <c r="AH5" s="1">
-        <v>-84.857800</v>
+        <v>-84.857799999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>5133.110810</v>
+        <v>5133.1108100000001</v>
       </c>
       <c r="AK5" s="1">
         <v>1.425864</v>
       </c>
       <c r="AL5" s="1">
-        <v>1226.540000</v>
+        <v>1226.54</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.044000</v>
+        <v>-88.043999999999997</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>5143.758426</v>
+        <v>5143.7584260000003</v>
       </c>
       <c r="AP5" s="1">
         <v>1.428822</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1234.260000</v>
+        <v>1234.26</v>
       </c>
       <c r="AR5" s="1">
-        <v>-99.623600</v>
+        <v>-99.623599999999996</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>5154.773085</v>
+        <v>5154.7730849999998</v>
       </c>
       <c r="AU5" s="1">
         <v>1.431881</v>
       </c>
       <c r="AV5" s="1">
-        <v>1244.060000</v>
+        <v>1244.06</v>
       </c>
       <c r="AW5" s="1">
-        <v>-118.505000</v>
+        <v>-118.505</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>5165.882973</v>
+        <v>5165.8829729999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>1.434967</v>
+        <v>1.4349670000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1252.300000</v>
+        <v>1252.3</v>
       </c>
       <c r="BB5" s="1">
-        <v>-135.526000</v>
+        <v>-135.52600000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>5176.539522</v>
       </c>
       <c r="BE5" s="1">
-        <v>1.437928</v>
+        <v>1.4379280000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1291.210000</v>
+        <v>1291.21</v>
       </c>
       <c r="BG5" s="1">
-        <v>-215.751000</v>
+        <v>-215.751</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>5187.211936</v>
+        <v>5187.2119359999997</v>
       </c>
       <c r="BJ5" s="1">
-        <v>1.440892</v>
+        <v>1.4408920000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1358.220000</v>
+        <v>1358.22</v>
       </c>
       <c r="BL5" s="1">
-        <v>-350.001000</v>
+        <v>-350.00099999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>5198.063410</v>
+        <v>5198.0634099999997</v>
       </c>
       <c r="BO5" s="1">
-        <v>1.443907</v>
+        <v>1.4439070000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1468.130000</v>
+        <v>1468.13</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-570.451000</v>
+        <v>-570.45100000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>5208.871733</v>
+        <v>5208.8717329999999</v>
       </c>
       <c r="BT5" s="1">
         <v>1.446909</v>
       </c>
       <c r="BU5" s="1">
-        <v>1595.890000</v>
+        <v>1595.89</v>
       </c>
       <c r="BV5" s="1">
-        <v>-821.586000</v>
+        <v>-821.58600000000001</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>5219.987574</v>
+        <v>5219.9875739999998</v>
       </c>
       <c r="BY5" s="1">
         <v>1.449997</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1743.520000</v>
+        <v>1743.52</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1095.380000</v>
+        <v>-1095.3800000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>5231.191703</v>
+        <v>5231.1917030000004</v>
       </c>
       <c r="CD5" s="1">
         <v>1.453109</v>
       </c>
       <c r="CE5" s="1">
-        <v>2155.600000</v>
+        <v>2155.6</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1764.950000</v>
+        <v>-1764.95</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>5059.663758</v>
+        <v>5059.6637579999997</v>
       </c>
       <c r="B6" s="1">
         <v>1.405462</v>
       </c>
       <c r="C6" s="1">
-        <v>1144.580000</v>
+        <v>1144.58</v>
       </c>
       <c r="D6" s="1">
-        <v>-257.890000</v>
+        <v>-257.89</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>5070.037053</v>
@@ -1524,103 +1940,103 @@
         <v>1.408344</v>
       </c>
       <c r="H6" s="1">
-        <v>1165.810000</v>
+        <v>1165.81</v>
       </c>
       <c r="I6" s="1">
-        <v>-215.954000</v>
+        <v>-215.95400000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>5080.503170</v>
+        <v>5080.50317</v>
       </c>
       <c r="L6" s="1">
         <v>1.411251</v>
       </c>
       <c r="M6" s="1">
-        <v>1193.250000</v>
+        <v>1193.25</v>
       </c>
       <c r="N6" s="1">
-        <v>-149.773000</v>
+        <v>-149.773</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>5091.893790</v>
+        <v>5091.8937900000001</v>
       </c>
       <c r="Q6" s="1">
         <v>1.414415</v>
       </c>
       <c r="R6" s="1">
-        <v>1200.950000</v>
+        <v>1200.95</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.491000</v>
+        <v>-127.491</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>5102.423329</v>
+        <v>5102.4233290000002</v>
       </c>
       <c r="V6" s="1">
-        <v>1.417340</v>
+        <v>1.41734</v>
       </c>
       <c r="W6" s="1">
-        <v>1207.940000</v>
+        <v>1207.94</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.477000</v>
+        <v>-106.477</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>5112.828916</v>
+        <v>5112.8289160000004</v>
       </c>
       <c r="AA6" s="1">
-        <v>1.420230</v>
+        <v>1.4202300000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1215.200000</v>
+        <v>1215.2</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.324700</v>
+        <v>-89.324700000000007</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>5123.351525</v>
       </c>
       <c r="AF6" s="1">
-        <v>1.423153</v>
+        <v>1.4231529999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1219.550000</v>
+        <v>1219.55</v>
       </c>
       <c r="AH6" s="1">
-        <v>-84.878100</v>
+        <v>-84.878100000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>5133.461976</v>
+        <v>5133.4619759999996</v>
       </c>
       <c r="AK6" s="1">
         <v>1.425962</v>
       </c>
       <c r="AL6" s="1">
-        <v>1226.510000</v>
+        <v>1226.51</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.071300</v>
+        <v>-88.071299999999994</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>5144.141337</v>
@@ -1629,210 +2045,210 @@
         <v>1.428928</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1234.280000</v>
+        <v>1234.28</v>
       </c>
       <c r="AR6" s="1">
-        <v>-99.665000</v>
+        <v>-99.665000000000006</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>5155.202621</v>
+        <v>5155.2026210000004</v>
       </c>
       <c r="AU6" s="1">
-        <v>1.432001</v>
+        <v>1.4320010000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1244.040000</v>
+        <v>1244.04</v>
       </c>
       <c r="AW6" s="1">
-        <v>-118.520000</v>
+        <v>-118.52</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>5166.365589</v>
       </c>
       <c r="AZ6" s="1">
-        <v>1.435102</v>
+        <v>1.4351020000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1252.310000</v>
+        <v>1252.31</v>
       </c>
       <c r="BB6" s="1">
-        <v>-135.563000</v>
+        <v>-135.56299999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>5176.850546</v>
+        <v>5176.8505459999997</v>
       </c>
       <c r="BE6" s="1">
-        <v>1.438014</v>
+        <v>1.4380139999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1291.220000</v>
+        <v>1291.22</v>
       </c>
       <c r="BG6" s="1">
-        <v>-215.766000</v>
+        <v>-215.76599999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>5187.586912</v>
+        <v>5187.5869119999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>1.440996</v>
+        <v>1.4409959999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1358.260000</v>
+        <v>1358.26</v>
       </c>
       <c r="BL6" s="1">
-        <v>-349.980000</v>
+        <v>-349.98</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>5198.485010</v>
+        <v>5198.4850100000003</v>
       </c>
       <c r="BO6" s="1">
         <v>1.444024</v>
       </c>
       <c r="BP6" s="1">
-        <v>1468.090000</v>
+        <v>1468.09</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-570.468000</v>
+        <v>-570.46799999999996</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>5209.289395</v>
+        <v>5209.2893949999998</v>
       </c>
       <c r="BT6" s="1">
         <v>1.447025</v>
       </c>
       <c r="BU6" s="1">
-        <v>1595.800000</v>
+        <v>1595.8</v>
       </c>
       <c r="BV6" s="1">
-        <v>-821.551000</v>
+        <v>-821.55100000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>5220.410697</v>
+        <v>5220.4106970000003</v>
       </c>
       <c r="BY6" s="1">
-        <v>1.450114</v>
+        <v>1.4501139999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1743.470000</v>
+        <v>1743.47</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1095.240000</v>
+        <v>-1095.24</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>5231.721958</v>
+        <v>5231.7219580000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>1.453256</v>
+        <v>1.4532560000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>2156.080000</v>
+        <v>2156.08</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1763.270000</v>
+        <v>-1763.27</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>5060.007945</v>
+        <v>5060.0079450000003</v>
       </c>
       <c r="B7" s="1">
-        <v>1.405558</v>
+        <v>1.4055580000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1144.710000</v>
+        <v>1144.71</v>
       </c>
       <c r="D7" s="1">
-        <v>-257.741000</v>
+        <v>-257.74099999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>5070.688335</v>
+        <v>5070.6883349999998</v>
       </c>
       <c r="G7" s="1">
         <v>1.408525</v>
       </c>
       <c r="H7" s="1">
-        <v>1165.990000</v>
+        <v>1165.99</v>
       </c>
       <c r="I7" s="1">
-        <v>-215.905000</v>
+        <v>-215.905</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>5081.150414</v>
+        <v>5081.1504139999997</v>
       </c>
       <c r="L7" s="1">
-        <v>1.411431</v>
+        <v>1.4114310000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1193.580000</v>
+        <v>1193.58</v>
       </c>
       <c r="N7" s="1">
-        <v>-149.377000</v>
+        <v>-149.37700000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>5092.281392</v>
+        <v>5092.2813919999999</v>
       </c>
       <c r="Q7" s="1">
         <v>1.414523</v>
       </c>
       <c r="R7" s="1">
-        <v>1200.900000</v>
+        <v>1200.9000000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.540000</v>
+        <v>-127.54</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>5102.768544</v>
+        <v>5102.7685439999996</v>
       </c>
       <c r="V7" s="1">
-        <v>1.417436</v>
+        <v>1.4174359999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1207.940000</v>
+        <v>1207.94</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.477000</v>
+        <v>-106.477</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>5113.175107</v>
@@ -1841,405 +2257,405 @@
         <v>1.420326</v>
       </c>
       <c r="AB7" s="1">
-        <v>1215.030000</v>
+        <v>1215.03</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.321000</v>
+        <v>-89.320999999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>5123.697269</v>
+        <v>5123.6972690000002</v>
       </c>
       <c r="AF7" s="1">
         <v>1.423249</v>
       </c>
       <c r="AG7" s="1">
-        <v>1219.560000</v>
+        <v>1219.56</v>
       </c>
       <c r="AH7" s="1">
-        <v>-84.920500</v>
+        <v>-84.920500000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>5133.868232</v>
+        <v>5133.8682319999998</v>
       </c>
       <c r="AK7" s="1">
         <v>1.426075</v>
       </c>
       <c r="AL7" s="1">
-        <v>1226.510000</v>
+        <v>1226.51</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.030300</v>
+        <v>-88.030299999999997</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>5144.562937</v>
+        <v>5144.5629369999997</v>
       </c>
       <c r="AP7" s="1">
-        <v>1.429045</v>
+        <v>1.4290449999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1234.280000</v>
+        <v>1234.28</v>
       </c>
       <c r="AR7" s="1">
-        <v>-99.624000</v>
+        <v>-99.623999999999995</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>5155.499724</v>
+        <v>5155.4997240000002</v>
       </c>
       <c r="AU7" s="1">
         <v>1.432083</v>
       </c>
       <c r="AV7" s="1">
-        <v>1244.050000</v>
+        <v>1244.05</v>
       </c>
       <c r="AW7" s="1">
-        <v>-118.510000</v>
+        <v>-118.51</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>5166.615099</v>
+        <v>5166.6150989999996</v>
       </c>
       <c r="AZ7" s="1">
         <v>1.435171</v>
       </c>
       <c r="BA7" s="1">
-        <v>1252.290000</v>
+        <v>1252.29</v>
       </c>
       <c r="BB7" s="1">
-        <v>-135.568000</v>
+        <v>-135.56800000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>5177.210606</v>
+        <v>5177.2106059999996</v>
       </c>
       <c r="BE7" s="1">
-        <v>1.438114</v>
+        <v>1.4381139999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1291.220000</v>
+        <v>1291.22</v>
       </c>
       <c r="BG7" s="1">
-        <v>-215.748000</v>
+        <v>-215.74799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>5187.986688</v>
       </c>
       <c r="BJ7" s="1">
-        <v>1.441107</v>
+        <v>1.4411069999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1358.250000</v>
+        <v>1358.25</v>
       </c>
       <c r="BL7" s="1">
-        <v>-349.975000</v>
+        <v>-349.97500000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>5198.881313</v>
+        <v>5198.8813129999999</v>
       </c>
       <c r="BO7" s="1">
         <v>1.444134</v>
       </c>
       <c r="BP7" s="1">
-        <v>1468.100000</v>
+        <v>1468.1</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-570.496000</v>
+        <v>-570.49599999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>5209.704228</v>
+        <v>5209.7042279999996</v>
       </c>
       <c r="BT7" s="1">
-        <v>1.447140</v>
+        <v>1.4471400000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1595.830000</v>
+        <v>1595.83</v>
       </c>
       <c r="BV7" s="1">
-        <v>-821.544000</v>
+        <v>-821.54399999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>5220.826310</v>
+        <v>5220.8263100000004</v>
       </c>
       <c r="BY7" s="1">
-        <v>1.450230</v>
+        <v>1.4502299999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1743.520000</v>
+        <v>1743.52</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1095.360000</v>
+        <v>-1095.3599999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>5232.240774</v>
+        <v>5232.2407739999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>1.453400</v>
+        <v>1.4534</v>
       </c>
       <c r="CE7" s="1">
-        <v>2153.800000</v>
+        <v>2153.8000000000002</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1764.690000</v>
+        <v>-1764.69</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>5060.663656</v>
+        <v>5060.6636559999997</v>
       </c>
       <c r="B8" s="1">
-        <v>1.405740</v>
+        <v>1.40574</v>
       </c>
       <c r="C8" s="1">
-        <v>1144.600000</v>
+        <v>1144.5999999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-257.730000</v>
+        <v>-257.73</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>5071.068234</v>
+        <v>5071.0682340000003</v>
       </c>
       <c r="G8" s="1">
-        <v>1.408630</v>
+        <v>1.40863</v>
       </c>
       <c r="H8" s="1">
-        <v>1166.110000</v>
+        <v>1166.1099999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-216.120000</v>
+        <v>-216.12</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>5081.537331</v>
+        <v>5081.5373310000004</v>
       </c>
       <c r="L8" s="1">
         <v>1.411538</v>
       </c>
       <c r="M8" s="1">
-        <v>1193.320000</v>
+        <v>1193.32</v>
       </c>
       <c r="N8" s="1">
-        <v>-149.487000</v>
+        <v>-149.48699999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>5092.629358</v>
+        <v>5092.6293580000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>1.414619</v>
+        <v>1.4146190000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1200.870000</v>
+        <v>1200.8699999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.441000</v>
+        <v>-127.441</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>5103.114257</v>
+        <v>5103.1142570000002</v>
       </c>
       <c r="V8" s="1">
         <v>1.417532</v>
       </c>
       <c r="W8" s="1">
-        <v>1207.930000</v>
+        <v>1207.93</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.489000</v>
+        <v>-106.489</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>5113.527763</v>
       </c>
       <c r="AA8" s="1">
-        <v>1.420424</v>
+        <v>1.4204239999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1215.150000</v>
+        <v>1215.1500000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.451800</v>
+        <v>-89.451800000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>5124.117361</v>
+        <v>5124.1173609999996</v>
       </c>
       <c r="AF8" s="1">
-        <v>1.423366</v>
+        <v>1.4233659999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1219.550000</v>
+        <v>1219.55</v>
       </c>
       <c r="AH8" s="1">
-        <v>-84.962100</v>
+        <v>-84.962100000000007</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>5134.156878</v>
+        <v>5134.1568779999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>1.426155</v>
+        <v>1.4261550000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1226.530000</v>
+        <v>1226.53</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.037900</v>
+        <v>-88.037899999999993</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>5144.862025</v>
+        <v>5144.8620250000004</v>
       </c>
       <c r="AP8" s="1">
         <v>1.429128</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1234.280000</v>
+        <v>1234.28</v>
       </c>
       <c r="AR8" s="1">
-        <v>-99.626500</v>
+        <v>-99.626499999999993</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>5155.863786</v>
+        <v>5155.8637859999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>1.432184</v>
+        <v>1.4321839999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1244.060000</v>
+        <v>1244.06</v>
       </c>
       <c r="AW8" s="1">
-        <v>-118.517000</v>
+        <v>-118.517</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>5166.960779</v>
       </c>
       <c r="AZ8" s="1">
-        <v>1.435267</v>
+        <v>1.4352670000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1252.320000</v>
+        <v>1252.32</v>
       </c>
       <c r="BB8" s="1">
-        <v>-135.600000</v>
+        <v>-135.6</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>5177.575688</v>
+        <v>5177.5756879999999</v>
       </c>
       <c r="BE8" s="1">
         <v>1.438215</v>
       </c>
       <c r="BF8" s="1">
-        <v>1291.190000</v>
+        <v>1291.19</v>
       </c>
       <c r="BG8" s="1">
-        <v>-215.733000</v>
+        <v>-215.733</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>5188.736180</v>
+        <v>5188.7361799999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>1.441316</v>
       </c>
       <c r="BK8" s="1">
-        <v>1358.290000</v>
+        <v>1358.29</v>
       </c>
       <c r="BL8" s="1">
-        <v>-350.005000</v>
+        <v>-350.005</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>5199.300433</v>
+        <v>5199.3004330000003</v>
       </c>
       <c r="BO8" s="1">
-        <v>1.444250</v>
+        <v>1.44425</v>
       </c>
       <c r="BP8" s="1">
-        <v>1468.100000</v>
+        <v>1468.1</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-570.446000</v>
+        <v>-570.44600000000003</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>5210.115235</v>
+        <v>5210.1152350000002</v>
       </c>
       <c r="BT8" s="1">
         <v>1.447254</v>
       </c>
       <c r="BU8" s="1">
-        <v>1595.930000</v>
+        <v>1595.93</v>
       </c>
       <c r="BV8" s="1">
-        <v>-821.572000</v>
+        <v>-821.572</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>5221.281172</v>
@@ -2248,288 +2664,288 @@
         <v>1.450356</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1743.570000</v>
+        <v>1743.57</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1095.220000</v>
+        <v>-1095.22</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>5232.785367</v>
+        <v>5232.7853670000004</v>
       </c>
       <c r="CD8" s="1">
         <v>1.453551</v>
       </c>
       <c r="CE8" s="1">
-        <v>2156.430000</v>
+        <v>2156.4299999999998</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1764.800000</v>
+        <v>-1764.8</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>5061.034167</v>
+        <v>5061.0341669999998</v>
       </c>
       <c r="B9" s="1">
         <v>1.405843</v>
       </c>
       <c r="C9" s="1">
-        <v>1144.510000</v>
+        <v>1144.51</v>
       </c>
       <c r="D9" s="1">
-        <v>-257.607000</v>
+        <v>-257.60700000000003</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>5071.411466</v>
+        <v>5071.4114659999996</v>
       </c>
       <c r="G9" s="1">
         <v>1.408725</v>
       </c>
       <c r="H9" s="1">
-        <v>1166.050000</v>
+        <v>1166.05</v>
       </c>
       <c r="I9" s="1">
-        <v>-215.866000</v>
+        <v>-215.86600000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>5081.895436</v>
+        <v>5081.8954359999998</v>
       </c>
       <c r="L9" s="1">
-        <v>1.411638</v>
+        <v>1.4116379999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1193.300000</v>
+        <v>1193.3</v>
       </c>
       <c r="N9" s="1">
-        <v>-149.625000</v>
+        <v>-149.625</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>5092.979501</v>
+        <v>5092.9795009999998</v>
       </c>
       <c r="Q9" s="1">
         <v>1.414717</v>
       </c>
       <c r="R9" s="1">
-        <v>1200.930000</v>
+        <v>1200.93</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.405000</v>
+        <v>-127.405</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>5103.540815</v>
+        <v>5103.5408150000003</v>
       </c>
       <c r="V9" s="1">
-        <v>1.417650</v>
+        <v>1.4176500000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1207.900000</v>
+        <v>1207.9000000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.515000</v>
+        <v>-106.515</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>5113.945412</v>
       </c>
       <c r="AA9" s="1">
-        <v>1.420540</v>
+        <v>1.4205399999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1215.180000</v>
+        <v>1215.18</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.405500</v>
+        <v>-89.405500000000004</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>5124.398120</v>
+        <v>5124.3981199999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>1.423444</v>
+        <v>1.4234439999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1219.530000</v>
+        <v>1219.53</v>
       </c>
       <c r="AH9" s="1">
-        <v>-84.934900</v>
+        <v>-84.934899999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>5134.501590</v>
+        <v>5134.5015899999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>1.426250</v>
+        <v>1.42625</v>
       </c>
       <c r="AL9" s="1">
-        <v>1226.510000</v>
+        <v>1226.51</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.051400</v>
+        <v>-88.051400000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>5145.222616</v>
       </c>
       <c r="AP9" s="1">
-        <v>1.429229</v>
+        <v>1.4292290000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1234.310000</v>
+        <v>1234.31</v>
       </c>
       <c r="AR9" s="1">
-        <v>-99.618700</v>
+        <v>-99.618700000000004</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>5156.227354</v>
+        <v>5156.2273539999997</v>
       </c>
       <c r="AU9" s="1">
         <v>1.432285</v>
       </c>
       <c r="AV9" s="1">
-        <v>1244.110000</v>
+        <v>1244.1099999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-118.505000</v>
+        <v>-118.505</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>5167.678491</v>
+        <v>5167.6784909999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>1.435466</v>
+        <v>1.4354659999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1252.300000</v>
+        <v>1252.3</v>
       </c>
       <c r="BB9" s="1">
-        <v>-135.584000</v>
+        <v>-135.584</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>5178.302835</v>
+        <v>5178.3028350000004</v>
       </c>
       <c r="BE9" s="1">
-        <v>1.438417</v>
+        <v>1.4384170000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1291.190000</v>
+        <v>1291.19</v>
       </c>
       <c r="BG9" s="1">
-        <v>-215.756000</v>
+        <v>-215.756</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>5189.137406</v>
+        <v>5189.1374059999998</v>
       </c>
       <c r="BJ9" s="1">
         <v>1.441427</v>
       </c>
       <c r="BK9" s="1">
-        <v>1358.220000</v>
+        <v>1358.22</v>
       </c>
       <c r="BL9" s="1">
-        <v>-349.974000</v>
+        <v>-349.97399999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>5199.746865</v>
+        <v>5199.7468650000001</v>
       </c>
       <c r="BO9" s="1">
         <v>1.444374</v>
       </c>
       <c r="BP9" s="1">
-        <v>1468.050000</v>
+        <v>1468.05</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-570.469000</v>
+        <v>-570.46900000000005</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>5210.533363</v>
+        <v>5210.5333629999996</v>
       </c>
       <c r="BT9" s="1">
-        <v>1.447370</v>
+        <v>1.44737</v>
       </c>
       <c r="BU9" s="1">
-        <v>1596.000000</v>
+        <v>1596</v>
       </c>
       <c r="BV9" s="1">
-        <v>-821.472000</v>
+        <v>-821.47199999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>5222.039026</v>
+        <v>5222.0390260000004</v>
       </c>
       <c r="BY9" s="1">
         <v>1.450566</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1743.550000</v>
+        <v>1743.55</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1095.260000</v>
+        <v>-1095.26</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>5233.670745</v>
+        <v>5233.6707450000004</v>
       </c>
       <c r="CD9" s="1">
         <v>1.453797</v>
       </c>
       <c r="CE9" s="1">
-        <v>2153.910000</v>
+        <v>2153.91</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1765.260000</v>
+        <v>-1765.26</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>5061.373431</v>
       </c>
@@ -2537,43 +2953,43 @@
         <v>1.405937</v>
       </c>
       <c r="C10" s="1">
-        <v>1144.290000</v>
+        <v>1144.29</v>
       </c>
       <c r="D10" s="1">
-        <v>-257.718000</v>
+        <v>-257.71800000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>5071.757209</v>
+        <v>5071.7572090000003</v>
       </c>
       <c r="G10" s="1">
-        <v>1.408821</v>
+        <v>1.4088210000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1166.240000</v>
+        <v>1166.24</v>
       </c>
       <c r="I10" s="1">
-        <v>-215.875000</v>
+        <v>-215.875</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>5082.513420</v>
+        <v>5082.5134200000002</v>
       </c>
       <c r="L10" s="1">
-        <v>1.411809</v>
+        <v>1.4118090000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1193.470000</v>
+        <v>1193.47</v>
       </c>
       <c r="N10" s="1">
-        <v>-149.625000</v>
+        <v>-149.625</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>5093.398655</v>
@@ -2582,468 +2998,468 @@
         <v>1.414833</v>
       </c>
       <c r="R10" s="1">
-        <v>1200.960000</v>
+        <v>1200.96</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.423000</v>
+        <v>-127.423</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>5103.816610</v>
+        <v>5103.8166099999999</v>
       </c>
       <c r="V10" s="1">
         <v>1.417727</v>
       </c>
       <c r="W10" s="1">
-        <v>1207.920000</v>
+        <v>1207.92</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.572000</v>
+        <v>-106.572</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>5114.226130</v>
+        <v>5114.22613</v>
       </c>
       <c r="AA10" s="1">
-        <v>1.420618</v>
+        <v>1.4206179999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1215.040000</v>
+        <v>1215.04</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.392200</v>
+        <v>-89.392200000000003</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>5124.742313</v>
+        <v>5124.7423129999997</v>
       </c>
       <c r="AF10" s="1">
-        <v>1.423540</v>
+        <v>1.42354</v>
       </c>
       <c r="AG10" s="1">
-        <v>1219.530000</v>
+        <v>1219.53</v>
       </c>
       <c r="AH10" s="1">
-        <v>-84.875700</v>
+        <v>-84.875699999999995</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>5134.851302</v>
       </c>
       <c r="AK10" s="1">
-        <v>1.426348</v>
+        <v>1.4263479999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1226.500000</v>
+        <v>1226.5</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.025600</v>
+        <v>-88.025599999999997</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>5145.580263</v>
+        <v>5145.5802629999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>1.429328</v>
+        <v>1.4293279999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1234.300000</v>
+        <v>1234.3</v>
       </c>
       <c r="AR10" s="1">
-        <v>-99.646800</v>
+        <v>-99.646799999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>5156.960441</v>
+        <v>5156.9604410000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>1.432489</v>
+        <v>1.4324889999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1244.050000</v>
+        <v>1244.05</v>
       </c>
       <c r="AW10" s="1">
-        <v>-118.492000</v>
+        <v>-118.492</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>5168.039082</v>
+        <v>5168.0390820000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>1.435566</v>
+        <v>1.4355659999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1252.300000</v>
+        <v>1252.3</v>
       </c>
       <c r="BB10" s="1">
-        <v>-135.555000</v>
+        <v>-135.55500000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>5178.679260</v>
+        <v>5178.6792599999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>1.438522</v>
+        <v>1.4385220000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1291.210000</v>
+        <v>1291.21</v>
       </c>
       <c r="BG10" s="1">
-        <v>-215.740000</v>
+        <v>-215.74</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>5189.516382</v>
+        <v>5189.5163819999998</v>
       </c>
       <c r="BJ10" s="1">
         <v>1.441532</v>
       </c>
       <c r="BK10" s="1">
-        <v>1358.270000</v>
+        <v>1358.27</v>
       </c>
       <c r="BL10" s="1">
-        <v>-350.027000</v>
+        <v>-350.02699999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>5200.429327</v>
+        <v>5200.4293269999998</v>
       </c>
       <c r="BO10" s="1">
         <v>1.444564</v>
       </c>
       <c r="BP10" s="1">
-        <v>1468.090000</v>
+        <v>1468.09</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-570.456000</v>
+        <v>-570.45600000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>5211.256993</v>
       </c>
       <c r="BT10" s="1">
-        <v>1.447571</v>
+        <v>1.4475709999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1595.930000</v>
+        <v>1595.93</v>
       </c>
       <c r="BV10" s="1">
-        <v>-821.450000</v>
+        <v>-821.45</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>5222.162530</v>
+        <v>5222.1625299999996</v>
       </c>
       <c r="BY10" s="1">
         <v>1.450601</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1743.310000</v>
+        <v>1743.31</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1095.340000</v>
+        <v>-1095.3399999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>5233.859683</v>
+        <v>5233.8596829999997</v>
       </c>
       <c r="CD10" s="1">
-        <v>1.453850</v>
+        <v>1.4538500000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>2153.490000</v>
+        <v>2153.4899999999998</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1765.020000</v>
+        <v>-1765.02</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>5061.717655</v>
+        <v>5061.7176550000004</v>
       </c>
       <c r="B11" s="1">
-        <v>1.406033</v>
+        <v>1.4060330000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1144.430000</v>
+        <v>1144.43</v>
       </c>
       <c r="D11" s="1">
-        <v>-257.365000</v>
+        <v>-257.36500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>5072.178281</v>
+        <v>5072.1782810000004</v>
       </c>
       <c r="G11" s="1">
         <v>1.408938</v>
       </c>
       <c r="H11" s="1">
-        <v>1166.100000</v>
+        <v>1166.0999999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-216.245000</v>
+        <v>-216.245</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>5082.928074</v>
+        <v>5082.9280740000004</v>
       </c>
       <c r="L11" s="1">
         <v>1.411924</v>
       </c>
       <c r="M11" s="1">
-        <v>1193.370000</v>
+        <v>1193.3699999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-149.627000</v>
+        <v>-149.62700000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>5093.693740</v>
+        <v>5093.6937399999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>1.414915</v>
+        <v>1.4149149999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1200.980000</v>
+        <v>1200.98</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.419000</v>
+        <v>-127.419</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>5104.161312</v>
+        <v>5104.1613120000002</v>
       </c>
       <c r="V11" s="1">
-        <v>1.417823</v>
+        <v>1.4178230000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1207.940000</v>
+        <v>1207.94</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.497000</v>
+        <v>-106.497</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>5114.577297</v>
+        <v>5114.5772969999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>1.420716</v>
+        <v>1.4207160000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1215.130000</v>
+        <v>1215.1300000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.471900</v>
+        <v>-89.471900000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>5125.086035</v>
+        <v>5125.0860350000003</v>
       </c>
       <c r="AF11" s="1">
         <v>1.423635</v>
       </c>
       <c r="AG11" s="1">
-        <v>1219.550000</v>
+        <v>1219.55</v>
       </c>
       <c r="AH11" s="1">
-        <v>-84.918500</v>
+        <v>-84.918499999999995</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>5135.551157</v>
+        <v>5135.5511569999999</v>
       </c>
       <c r="AK11" s="1">
         <v>1.426542</v>
       </c>
       <c r="AL11" s="1">
-        <v>1226.520000</v>
+        <v>1226.52</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.051000</v>
+        <v>-88.051000000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>5146.299927</v>
       </c>
       <c r="AP11" s="1">
-        <v>1.429528</v>
+        <v>1.4295279999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1234.310000</v>
+        <v>1234.31</v>
       </c>
       <c r="AR11" s="1">
-        <v>-99.647500</v>
+        <v>-99.647499999999994</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>5157.351321</v>
+        <v>5157.3513210000001</v>
       </c>
       <c r="AU11" s="1">
         <v>1.432598</v>
       </c>
       <c r="AV11" s="1">
-        <v>1244.080000</v>
+        <v>1244.08</v>
       </c>
       <c r="AW11" s="1">
-        <v>-118.511000</v>
+        <v>-118.511</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>5168.397193</v>
+        <v>5168.3971929999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>1.435666</v>
+        <v>1.4356660000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1252.300000</v>
+        <v>1252.3</v>
       </c>
       <c r="BB11" s="1">
-        <v>-135.572000</v>
+        <v>-135.572</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>5179.059692</v>
+        <v>5179.0596919999998</v>
       </c>
       <c r="BE11" s="1">
         <v>1.438628</v>
       </c>
       <c r="BF11" s="1">
-        <v>1291.220000</v>
+        <v>1291.22</v>
       </c>
       <c r="BG11" s="1">
-        <v>-215.741000</v>
+        <v>-215.74100000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>5190.202317</v>
+        <v>5190.2023170000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>1.441723</v>
+        <v>1.4417230000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1358.260000</v>
+        <v>1358.26</v>
       </c>
       <c r="BL11" s="1">
-        <v>-349.949000</v>
+        <v>-349.94900000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>5200.935742</v>
+        <v>5200.9357419999997</v>
       </c>
       <c r="BO11" s="1">
         <v>1.444704</v>
       </c>
       <c r="BP11" s="1">
-        <v>1468.140000</v>
+        <v>1468.14</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-570.450000</v>
+        <v>-570.45000000000005</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>5211.379505</v>
+        <v>5211.3795049999999</v>
       </c>
       <c r="BT11" s="1">
         <v>1.447605</v>
       </c>
       <c r="BU11" s="1">
-        <v>1595.850000</v>
+        <v>1595.85</v>
       </c>
       <c r="BV11" s="1">
-        <v>-821.460000</v>
+        <v>-821.46</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>5222.586381</v>
+        <v>5222.5863810000001</v>
       </c>
       <c r="BY11" s="1">
         <v>1.450718</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1743.540000</v>
+        <v>1743.54</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1095.370000</v>
+        <v>-1095.3699999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>5234.376546</v>
+        <v>5234.3765460000004</v>
       </c>
       <c r="CD11" s="1">
-        <v>1.453993</v>
+        <v>1.4539930000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>2156.140000</v>
+        <v>2156.14</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1765.000000</v>
+        <v>-1765</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>5062.131848</v>
       </c>
@@ -3051,2341 +3467,2341 @@
         <v>1.406148</v>
       </c>
       <c r="C12" s="1">
-        <v>1144.580000</v>
+        <v>1144.58</v>
       </c>
       <c r="D12" s="1">
-        <v>-257.806000</v>
+        <v>-257.80599999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>5072.451578</v>
+        <v>5072.4515780000002</v>
       </c>
       <c r="G12" s="1">
         <v>1.409014</v>
       </c>
       <c r="H12" s="1">
-        <v>1166.070000</v>
+        <v>1166.07</v>
       </c>
       <c r="I12" s="1">
-        <v>-215.743000</v>
+        <v>-215.74299999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>5083.273322</v>
       </c>
       <c r="L12" s="1">
-        <v>1.412020</v>
+        <v>1.4120200000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1193.310000</v>
+        <v>1193.31</v>
       </c>
       <c r="N12" s="1">
-        <v>-149.489000</v>
+        <v>-149.489</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>5094.040972</v>
+        <v>5094.0409719999998</v>
       </c>
       <c r="Q12" s="1">
         <v>1.415011</v>
       </c>
       <c r="R12" s="1">
-        <v>1200.920000</v>
+        <v>1200.92</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.453000</v>
+        <v>-127.453</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>5104.505039</v>
+        <v>5104.5050389999997</v>
       </c>
       <c r="V12" s="1">
         <v>1.417918</v>
       </c>
       <c r="W12" s="1">
-        <v>1207.990000</v>
+        <v>1207.99</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.468000</v>
+        <v>-106.468</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>5114.923504</v>
+        <v>5114.9235040000003</v>
       </c>
       <c r="AA12" s="1">
         <v>1.420812</v>
       </c>
       <c r="AB12" s="1">
-        <v>1215.130000</v>
+        <v>1215.1300000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.536000</v>
+        <v>-89.536000000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>5125.770019</v>
+        <v>5125.7700189999996</v>
       </c>
       <c r="AF12" s="1">
-        <v>1.423825</v>
+        <v>1.4238249999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1219.530000</v>
+        <v>1219.53</v>
       </c>
       <c r="AH12" s="1">
-        <v>-84.925300</v>
+        <v>-84.925299999999993</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>5135.898822</v>
+        <v>5135.8988220000001</v>
       </c>
       <c r="AK12" s="1">
         <v>1.426639</v>
       </c>
       <c r="AL12" s="1">
-        <v>1226.530000</v>
+        <v>1226.53</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.038100</v>
+        <v>-88.0381</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>5146.660518</v>
+        <v>5146.6605179999997</v>
       </c>
       <c r="AP12" s="1">
-        <v>1.429628</v>
+        <v>1.4296279999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1234.290000</v>
+        <v>1234.29</v>
       </c>
       <c r="AR12" s="1">
-        <v>-99.623500</v>
+        <v>-99.623500000000007</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>5157.716840</v>
+        <v>5157.71684</v>
       </c>
       <c r="AU12" s="1">
-        <v>1.432699</v>
+        <v>1.4326989999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1244.060000</v>
+        <v>1244.06</v>
       </c>
       <c r="AW12" s="1">
-        <v>-118.510000</v>
+        <v>-118.51</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>5169.066792</v>
+        <v>5169.0667919999996</v>
       </c>
       <c r="AZ12" s="1">
-        <v>1.435852</v>
+        <v>1.4358519999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1252.270000</v>
+        <v>1252.27</v>
       </c>
       <c r="BB12" s="1">
-        <v>-135.571000</v>
+        <v>-135.571</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>5179.719370</v>
+        <v>5179.7193699999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>1.438811</v>
+        <v>1.4388110000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1291.230000</v>
+        <v>1291.23</v>
       </c>
       <c r="BG12" s="1">
-        <v>-215.742000</v>
+        <v>-215.74199999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>5190.672029</v>
+        <v>5190.6720290000003</v>
       </c>
       <c r="BJ12" s="1">
-        <v>1.441853</v>
+        <v>1.4418530000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1358.230000</v>
+        <v>1358.23</v>
       </c>
       <c r="BL12" s="1">
-        <v>-349.994000</v>
+        <v>-349.99400000000003</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>5201.355855</v>
+        <v>5201.3558549999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>1.444821</v>
+        <v>1.4448209999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1468.090000</v>
+        <v>1468.09</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-570.463000</v>
+        <v>-570.46299999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>5211.788208</v>
+        <v>5211.7882079999999</v>
       </c>
       <c r="BT12" s="1">
         <v>1.447719</v>
       </c>
       <c r="BU12" s="1">
-        <v>1595.920000</v>
+        <v>1595.92</v>
       </c>
       <c r="BV12" s="1">
-        <v>-821.483000</v>
+        <v>-821.48299999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>5223.004737</v>
+        <v>5223.0047370000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>1.450835</v>
+        <v>1.4508350000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1743.500000</v>
+        <v>1743.5</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1095.420000</v>
+        <v>-1095.42</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>5234.896819</v>
+        <v>5234.8968189999996</v>
       </c>
       <c r="CD12" s="1">
-        <v>1.454138</v>
+        <v>1.4541379999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>2154.410000</v>
+        <v>2154.41</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1763.330000</v>
+        <v>-1763.33</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>5062.407094</v>
+        <v>5062.4070940000001</v>
       </c>
       <c r="B13" s="1">
-        <v>1.406224</v>
+        <v>1.4062239999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1144.740000</v>
+        <v>1144.74</v>
       </c>
       <c r="D13" s="1">
-        <v>-257.553000</v>
+        <v>-257.553</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>5072.797288</v>
+        <v>5072.7972879999998</v>
       </c>
       <c r="G13" s="1">
-        <v>1.409110</v>
+        <v>1.4091100000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1166.200000</v>
+        <v>1166.2</v>
       </c>
       <c r="I13" s="1">
-        <v>-216.375000</v>
+        <v>-216.375</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>5083.618041</v>
+        <v>5083.6180409999997</v>
       </c>
       <c r="L13" s="1">
-        <v>1.412116</v>
+        <v>1.4121159999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1193.330000</v>
+        <v>1193.33</v>
       </c>
       <c r="N13" s="1">
-        <v>-149.595000</v>
+        <v>-149.595</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>5094.390124</v>
+        <v>5094.3901239999996</v>
       </c>
       <c r="Q13" s="1">
         <v>1.415108</v>
       </c>
       <c r="R13" s="1">
-        <v>1200.850000</v>
+        <v>1200.8499999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.465000</v>
+        <v>-127.465</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>5105.193021</v>
       </c>
       <c r="V13" s="1">
-        <v>1.418109</v>
+        <v>1.4181090000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1207.930000</v>
+        <v>1207.93</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.554000</v>
+        <v>-106.554</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>5115.621377</v>
+        <v>5115.6213770000004</v>
       </c>
       <c r="AA13" s="1">
         <v>1.421006</v>
       </c>
       <c r="AB13" s="1">
-        <v>1214.960000</v>
+        <v>1214.96</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.449600</v>
+        <v>-89.449600000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>5126.113281</v>
+        <v>5126.1132809999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>1.423920</v>
+        <v>1.4239200000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1219.580000</v>
+        <v>1219.58</v>
       </c>
       <c r="AH13" s="1">
-        <v>-84.919300</v>
+        <v>-84.919300000000007</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>5136.246554</v>
+        <v>5136.2465540000003</v>
       </c>
       <c r="AK13" s="1">
-        <v>1.426735</v>
+        <v>1.4267350000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1226.500000</v>
+        <v>1226.5</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.051900</v>
+        <v>-88.051900000000003</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>5147.022597</v>
+        <v>5147.0225970000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>1.429728</v>
+        <v>1.4297280000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1234.260000</v>
+        <v>1234.26</v>
       </c>
       <c r="AR13" s="1">
-        <v>-99.630300</v>
+        <v>-99.630300000000005</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>5158.384487</v>
+        <v>5158.3844870000003</v>
       </c>
       <c r="AU13" s="1">
         <v>1.432885</v>
       </c>
       <c r="AV13" s="1">
-        <v>1244.070000</v>
+        <v>1244.07</v>
       </c>
       <c r="AW13" s="1">
-        <v>-118.521000</v>
+        <v>-118.521</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>5169.508728</v>
+        <v>5169.5087279999998</v>
       </c>
       <c r="AZ13" s="1">
         <v>1.435975</v>
       </c>
       <c r="BA13" s="1">
-        <v>1252.300000</v>
+        <v>1252.3</v>
       </c>
       <c r="BB13" s="1">
-        <v>-135.575000</v>
+        <v>-135.57499999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>5180.144938</v>
+        <v>5180.1449380000004</v>
       </c>
       <c r="BE13" s="1">
-        <v>1.438929</v>
+        <v>1.4389289999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1291.180000</v>
+        <v>1291.18</v>
       </c>
       <c r="BG13" s="1">
-        <v>-215.735000</v>
+        <v>-215.73500000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>5191.062907</v>
+        <v>5191.0629070000005</v>
       </c>
       <c r="BJ13" s="1">
         <v>1.441962</v>
       </c>
       <c r="BK13" s="1">
-        <v>1358.270000</v>
+        <v>1358.27</v>
       </c>
       <c r="BL13" s="1">
-        <v>-349.985000</v>
+        <v>-349.98500000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>5201.754141</v>
+        <v>5201.7541410000003</v>
       </c>
       <c r="BO13" s="1">
-        <v>1.444932</v>
+        <v>1.4449320000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1468.110000</v>
+        <v>1468.11</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-570.452000</v>
+        <v>-570.452</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>5212.219739</v>
+        <v>5212.2197390000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>1.447839</v>
+        <v>1.4478390000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1595.860000</v>
+        <v>1595.86</v>
       </c>
       <c r="BV13" s="1">
-        <v>-821.423000</v>
+        <v>-821.423</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>5223.461057</v>
+        <v>5223.4610570000004</v>
       </c>
       <c r="BY13" s="1">
-        <v>1.450961</v>
+        <v>1.4509609999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1743.580000</v>
+        <v>1743.58</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1095.420000</v>
+        <v>-1095.42</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>5235.436961</v>
+        <v>5235.4369610000003</v>
       </c>
       <c r="CD13" s="1">
         <v>1.454288</v>
       </c>
       <c r="CE13" s="1">
-        <v>2155.200000</v>
+        <v>2155.1999999999998</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1765.530000</v>
+        <v>-1765.53</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>5062.748341</v>
+        <v>5062.7483410000004</v>
       </c>
       <c r="B14" s="1">
-        <v>1.406319</v>
+        <v>1.4063190000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1144.690000</v>
+        <v>1144.69</v>
       </c>
       <c r="D14" s="1">
-        <v>-257.780000</v>
+        <v>-257.77999999999997</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>5073.141511</v>
+        <v>5073.1415109999998</v>
       </c>
       <c r="G14" s="1">
         <v>1.409206</v>
       </c>
       <c r="H14" s="1">
-        <v>1166.150000</v>
+        <v>1166.1500000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-215.942000</v>
+        <v>-215.94200000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>5084.308970</v>
+        <v>5084.30897</v>
       </c>
       <c r="L14" s="1">
-        <v>1.412308</v>
+        <v>1.4123079999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1193.420000</v>
+        <v>1193.42</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.690000</v>
+        <v>-149.69</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>5095.086038</v>
+        <v>5095.0860380000004</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.415302</v>
+        <v>1.4153020000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1200.870000</v>
+        <v>1200.8699999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.438000</v>
+        <v>-127.438</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>5105.534236</v>
+        <v>5105.5342360000004</v>
       </c>
       <c r="V14" s="1">
         <v>1.418204</v>
       </c>
       <c r="W14" s="1">
-        <v>1208.010000</v>
+        <v>1208.01</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.541000</v>
+        <v>-106.541</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>5115.970559</v>
+        <v>5115.9705590000003</v>
       </c>
       <c r="AA14" s="1">
         <v>1.421103</v>
       </c>
       <c r="AB14" s="1">
-        <v>1215.260000</v>
+        <v>1215.26</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.359600</v>
+        <v>-89.3596</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>5126.458001</v>
       </c>
       <c r="AF14" s="1">
-        <v>1.424016</v>
+        <v>1.4240159999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1219.590000</v>
+        <v>1219.5899999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-84.862200</v>
+        <v>-84.862200000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>5136.898793</v>
+        <v>5136.8987930000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>1.426916</v>
+        <v>1.4269160000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1226.520000</v>
+        <v>1226.52</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.067800</v>
+        <v>-88.067800000000005</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>5147.684784</v>
       </c>
       <c r="AP14" s="1">
-        <v>1.429912</v>
+        <v>1.4299120000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1234.280000</v>
+        <v>1234.28</v>
       </c>
       <c r="AR14" s="1">
-        <v>-99.628100</v>
+        <v>-99.628100000000003</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>5158.805558</v>
       </c>
       <c r="AU14" s="1">
-        <v>1.433002</v>
+        <v>1.4330020000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1244.030000</v>
+        <v>1244.03</v>
       </c>
       <c r="AW14" s="1">
-        <v>-118.525000</v>
+        <v>-118.52500000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>5169.866343</v>
+        <v>5169.8663429999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>1.436074</v>
+        <v>1.4360740000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1252.300000</v>
+        <v>1252.3</v>
       </c>
       <c r="BB14" s="1">
-        <v>-135.595000</v>
+        <v>-135.595</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>5180.533840</v>
+        <v>5180.5338400000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>1.439037</v>
+        <v>1.4390369999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1291.190000</v>
+        <v>1291.19</v>
       </c>
       <c r="BG14" s="1">
-        <v>-215.753000</v>
+        <v>-215.75299999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>5191.436859</v>
+        <v>5191.4368590000004</v>
       </c>
       <c r="BJ14" s="1">
-        <v>1.442066</v>
+        <v>1.4420660000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1358.250000</v>
+        <v>1358.25</v>
       </c>
       <c r="BL14" s="1">
-        <v>-350.005000</v>
+        <v>-350.005</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>5202.175281</v>
+        <v>5202.1752809999998</v>
       </c>
       <c r="BO14" s="1">
         <v>1.445049</v>
       </c>
       <c r="BP14" s="1">
-        <v>1468.090000</v>
+        <v>1468.09</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-570.472000</v>
+        <v>-570.47199999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>5212.633391</v>
+        <v>5212.6333910000003</v>
       </c>
       <c r="BT14" s="1">
         <v>1.447954</v>
       </c>
       <c r="BU14" s="1">
-        <v>1595.930000</v>
+        <v>1595.93</v>
       </c>
       <c r="BV14" s="1">
-        <v>-821.415000</v>
+        <v>-821.41499999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>5223.909473</v>
+        <v>5223.9094729999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>1.451086</v>
+        <v>1.4510860000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1743.530000</v>
+        <v>1743.53</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1095.410000</v>
+        <v>-1095.4100000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>5235.976112</v>
+        <v>5235.9761120000003</v>
       </c>
       <c r="CD14" s="1">
-        <v>1.454438</v>
+        <v>1.4544379999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>2155.770000</v>
+        <v>2155.77</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1763.630000</v>
+        <v>-1763.63</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>5063.081189</v>
+        <v>5063.0811890000004</v>
       </c>
       <c r="B15" s="1">
-        <v>1.406411</v>
+        <v>1.4064110000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1144.580000</v>
+        <v>1144.58</v>
       </c>
       <c r="D15" s="1">
-        <v>-257.599000</v>
+        <v>-257.59899999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>5073.832439</v>
+        <v>5073.8324389999998</v>
       </c>
       <c r="G15" s="1">
-        <v>1.409398</v>
+        <v>1.4093979999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1166.310000</v>
+        <v>1166.31</v>
       </c>
       <c r="I15" s="1">
-        <v>-216.003000</v>
+        <v>-216.00299999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>5084.657624</v>
+        <v>5084.6576240000004</v>
       </c>
       <c r="L15" s="1">
-        <v>1.412405</v>
+        <v>1.4124049999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1193.170000</v>
+        <v>1193.17</v>
       </c>
       <c r="N15" s="1">
-        <v>-149.767000</v>
+        <v>-149.767</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>5095.435690</v>
+        <v>5095.4356900000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>1.415399</v>
+        <v>1.4153990000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1200.880000</v>
+        <v>1200.8800000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.389000</v>
+        <v>-127.389</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>5105.877964</v>
+        <v>5105.8779640000002</v>
       </c>
       <c r="V15" s="1">
         <v>1.418299</v>
       </c>
       <c r="W15" s="1">
-        <v>1207.860000</v>
+        <v>1207.8599999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.572000</v>
+        <v>-106.572</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>5116.622798</v>
+        <v>5116.6227980000003</v>
       </c>
       <c r="AA15" s="1">
         <v>1.421284</v>
       </c>
       <c r="AB15" s="1">
-        <v>1215.010000</v>
+        <v>1215.01</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.473100</v>
+        <v>-89.473100000000002</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>5127.111480</v>
+        <v>5127.1114799999996</v>
       </c>
       <c r="AF15" s="1">
-        <v>1.424198</v>
+        <v>1.4241980000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1219.570000</v>
+        <v>1219.57</v>
       </c>
       <c r="AH15" s="1">
-        <v>-84.920000</v>
+        <v>-84.92</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>5137.294066</v>
+        <v>5137.2940660000004</v>
       </c>
       <c r="AK15" s="1">
-        <v>1.427026</v>
+        <v>1.4270259999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1226.520000</v>
+        <v>1226.52</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.071200</v>
+        <v>-88.071200000000005</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>5148.129172</v>
+        <v>5148.1291719999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>1.430036</v>
+        <v>1.4300360000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1234.310000</v>
+        <v>1234.31</v>
       </c>
       <c r="AR15" s="1">
-        <v>-99.633200</v>
+        <v>-99.633200000000002</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>5159.202890</v>
+        <v>5159.2028899999996</v>
       </c>
       <c r="AU15" s="1">
-        <v>1.433112</v>
+        <v>1.4331119999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1244.060000</v>
+        <v>1244.06</v>
       </c>
       <c r="AW15" s="1">
-        <v>-118.490000</v>
+        <v>-118.49</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>5170.225945</v>
+        <v>5170.2259450000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1.436174</v>
+        <v>1.4361740000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1252.280000</v>
+        <v>1252.28</v>
       </c>
       <c r="BB15" s="1">
-        <v>-135.574000</v>
+        <v>-135.57400000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>5180.892442</v>
+        <v>5180.8924420000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>1.439137</v>
+        <v>1.4391370000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1291.210000</v>
+        <v>1291.21</v>
       </c>
       <c r="BG15" s="1">
-        <v>-215.752000</v>
+        <v>-215.75200000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>5191.860443</v>
+        <v>5191.8604429999996</v>
       </c>
       <c r="BJ15" s="1">
         <v>1.442183</v>
       </c>
       <c r="BK15" s="1">
-        <v>1358.280000</v>
+        <v>1358.28</v>
       </c>
       <c r="BL15" s="1">
-        <v>-349.982000</v>
+        <v>-349.98200000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>5202.571053</v>
+        <v>5202.5710529999997</v>
       </c>
       <c r="BO15" s="1">
-        <v>1.445159</v>
+        <v>1.4451590000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1468.090000</v>
+        <v>1468.09</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-570.466000</v>
+        <v>-570.46600000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>5213.050063</v>
+        <v>5213.0500629999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>1.448069</v>
+        <v>1.4480690000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1595.880000</v>
+        <v>1595.88</v>
       </c>
       <c r="BV15" s="1">
-        <v>-821.383000</v>
+        <v>-821.38300000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>5224.332063</v>
+        <v>5224.3320629999998</v>
       </c>
       <c r="BY15" s="1">
         <v>1.451203</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1743.510000</v>
+        <v>1743.51</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1095.190000</v>
+        <v>-1095.19</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>5236.515264</v>
+        <v>5236.5152639999997</v>
       </c>
       <c r="CD15" s="1">
         <v>1.454588</v>
       </c>
       <c r="CE15" s="1">
-        <v>2153.470000</v>
+        <v>2153.4699999999998</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1764.630000</v>
+        <v>-1764.63</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>5063.774068</v>
+        <v>5063.7740679999997</v>
       </c>
       <c r="B16" s="1">
         <v>1.406604</v>
       </c>
       <c r="C16" s="1">
-        <v>1144.580000</v>
+        <v>1144.58</v>
       </c>
       <c r="D16" s="1">
-        <v>-257.725000</v>
+        <v>-257.72500000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>5074.174215</v>
       </c>
       <c r="G16" s="1">
-        <v>1.409493</v>
+        <v>1.4094930000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1166.210000</v>
+        <v>1166.21</v>
       </c>
       <c r="I16" s="1">
-        <v>-216.171000</v>
+        <v>-216.17099999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>5085.003368</v>
+        <v>5085.0033679999997</v>
       </c>
       <c r="L16" s="1">
         <v>1.412501</v>
       </c>
       <c r="M16" s="1">
-        <v>1193.460000</v>
+        <v>1193.46</v>
       </c>
       <c r="N16" s="1">
-        <v>-149.691000</v>
+        <v>-149.691</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>5095.785903</v>
       </c>
       <c r="Q16" s="1">
-        <v>1.415496</v>
+        <v>1.4154960000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1200.900000</v>
+        <v>1200.9000000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.432000</v>
+        <v>-127.432</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>5106.523260</v>
+        <v>5106.5232599999999</v>
       </c>
       <c r="V16" s="1">
         <v>1.418479</v>
       </c>
       <c r="W16" s="1">
-        <v>1207.970000</v>
+        <v>1207.97</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.559000</v>
+        <v>-106.559</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>5117.003230</v>
+        <v>5117.0032300000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>1.421390</v>
+        <v>1.4213899999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1215.280000</v>
+        <v>1215.28</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.388600</v>
+        <v>-89.388599999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>5127.487697</v>
+        <v>5127.4876969999996</v>
       </c>
       <c r="AF16" s="1">
         <v>1.424302</v>
       </c>
       <c r="AG16" s="1">
-        <v>1219.560000</v>
+        <v>1219.56</v>
       </c>
       <c r="AH16" s="1">
-        <v>-84.898100</v>
+        <v>-84.898099999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>5137.640771</v>
+        <v>5137.6407710000003</v>
       </c>
       <c r="AK16" s="1">
         <v>1.427122</v>
       </c>
       <c r="AL16" s="1">
-        <v>1226.490000</v>
+        <v>1226.49</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.028200</v>
+        <v>-88.028199999999998</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>5148.486788</v>
+        <v>5148.4867880000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>1.430135</v>
+        <v>1.4301349999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1234.300000</v>
+        <v>1234.3</v>
       </c>
       <c r="AR16" s="1">
-        <v>-99.658800</v>
+        <v>-99.658799999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>5159.567945</v>
+        <v>5159.5679449999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>1.433213</v>
+        <v>1.4332130000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1244.080000</v>
+        <v>1244.08</v>
       </c>
       <c r="AW16" s="1">
-        <v>-118.523000</v>
+        <v>-118.523</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>5170.647047</v>
+        <v>5170.6470470000004</v>
       </c>
       <c r="AZ16" s="1">
         <v>1.436291</v>
       </c>
       <c r="BA16" s="1">
-        <v>1252.280000</v>
+        <v>1252.28</v>
       </c>
       <c r="BB16" s="1">
-        <v>-135.575000</v>
+        <v>-135.57499999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>5181.304088</v>
+        <v>5181.3040879999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>1.439251</v>
+        <v>1.4392510000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1291.190000</v>
+        <v>1291.19</v>
       </c>
       <c r="BG16" s="1">
-        <v>-215.758000</v>
+        <v>-215.75800000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>5192.186810</v>
+        <v>5192.1868100000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>1.442274</v>
+        <v>1.4422740000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1358.220000</v>
+        <v>1358.22</v>
       </c>
       <c r="BL16" s="1">
-        <v>-350.010000</v>
+        <v>-350.01</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>5202.991660</v>
+        <v>5202.9916599999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>1.445275</v>
+        <v>1.4452750000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1468.100000</v>
+        <v>1468.1</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-570.446000</v>
+        <v>-570.44600000000003</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>5213.461710</v>
+        <v>5213.4617099999996</v>
       </c>
       <c r="BT16" s="1">
-        <v>1.448184</v>
+        <v>1.4481839999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1596.070000</v>
+        <v>1596.07</v>
       </c>
       <c r="BV16" s="1">
-        <v>-821.349000</v>
+        <v>-821.34900000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>5224.752155</v>
+        <v>5224.7521550000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>1.451320</v>
+        <v>1.4513199999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1743.400000</v>
+        <v>1743.4</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1095.310000</v>
+        <v>-1095.31</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>5237.055408</v>
+        <v>5237.0554080000002</v>
       </c>
       <c r="CD16" s="1">
-        <v>1.454738</v>
+        <v>1.4547380000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>2155.870000</v>
+        <v>2155.87</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1764.690000</v>
+        <v>-1764.69</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>5064.115316</v>
+        <v>5064.1153160000003</v>
       </c>
       <c r="B17" s="1">
-        <v>1.406699</v>
+        <v>1.4066989999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1144.400000</v>
+        <v>1144.4000000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-257.960000</v>
+        <v>-257.95999999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>5074.520390</v>
+        <v>5074.5203899999997</v>
       </c>
       <c r="G17" s="1">
         <v>1.409589</v>
       </c>
       <c r="H17" s="1">
-        <v>1166.270000</v>
+        <v>1166.27</v>
       </c>
       <c r="I17" s="1">
-        <v>-216.101000</v>
+        <v>-216.101</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>5085.648460</v>
+        <v>5085.6484600000003</v>
       </c>
       <c r="L17" s="1">
-        <v>1.412680</v>
+        <v>1.4126799999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1193.260000</v>
+        <v>1193.26</v>
       </c>
       <c r="N17" s="1">
-        <v>-149.546000</v>
+        <v>-149.54599999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>5096.436648</v>
+        <v>5096.4366479999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>1.415677</v>
+        <v>1.4156770000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1200.930000</v>
+        <v>1200.93</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.489000</v>
+        <v>-127.489</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>5106.910635</v>
+        <v>5106.9106350000002</v>
       </c>
       <c r="V17" s="1">
-        <v>1.418586</v>
+        <v>1.4185859999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1207.960000</v>
+        <v>1207.96</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.592000</v>
+        <v>-106.592</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>5117.362831</v>
+        <v>5117.3628310000004</v>
       </c>
       <c r="AA17" s="1">
-        <v>1.421490</v>
+        <v>1.4214899999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1214.910000</v>
+        <v>1214.9100000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.426200</v>
+        <v>-89.426199999999994</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>5127.830934</v>
+        <v>5127.8309339999996</v>
       </c>
       <c r="AF17" s="1">
-        <v>1.424397</v>
+        <v>1.4243969999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1219.560000</v>
+        <v>1219.56</v>
       </c>
       <c r="AH17" s="1">
-        <v>-84.955100</v>
+        <v>-84.955100000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>5137.990483</v>
+        <v>5137.9904829999996</v>
       </c>
       <c r="AK17" s="1">
-        <v>1.427220</v>
+        <v>1.4272199999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1226.510000</v>
+        <v>1226.51</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.048500</v>
+        <v>-88.048500000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>5148.845892</v>
+        <v>5148.8458920000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>1.430235</v>
+        <v>1.4302349999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1234.280000</v>
+        <v>1234.28</v>
       </c>
       <c r="AR17" s="1">
-        <v>-99.633000</v>
+        <v>-99.632999999999996</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>5159.986037</v>
+        <v>5159.9860369999997</v>
       </c>
       <c r="AU17" s="1">
-        <v>1.433329</v>
+        <v>1.4333290000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1244.090000</v>
+        <v>1244.0899999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-118.527000</v>
+        <v>-118.527</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>5170.941025</v>
+        <v>5170.9410250000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>1.436373</v>
+        <v>1.4363729999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1252.310000</v>
+        <v>1252.31</v>
       </c>
       <c r="BB17" s="1">
-        <v>-135.545000</v>
+        <v>-135.54499999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>5181.606153</v>
+        <v>5181.6061529999997</v>
       </c>
       <c r="BE17" s="1">
         <v>1.439335</v>
       </c>
       <c r="BF17" s="1">
-        <v>1291.200000</v>
+        <v>1291.2</v>
       </c>
       <c r="BG17" s="1">
-        <v>-215.767000</v>
+        <v>-215.767</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>5192.572202</v>
+        <v>5192.5722020000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>1.442381</v>
+        <v>1.4423809999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1358.240000</v>
+        <v>1358.24</v>
       </c>
       <c r="BL17" s="1">
-        <v>-349.969000</v>
+        <v>-349.96899999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>5203.386476</v>
+        <v>5203.3864759999997</v>
       </c>
       <c r="BO17" s="1">
-        <v>1.445385</v>
+        <v>1.4453849999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1468.160000</v>
+        <v>1468.16</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-570.479000</v>
+        <v>-570.47900000000004</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>5213.877389</v>
+        <v>5213.8773890000002</v>
       </c>
       <c r="BT17" s="1">
         <v>1.448299</v>
       </c>
       <c r="BU17" s="1">
-        <v>1595.940000</v>
+        <v>1595.94</v>
       </c>
       <c r="BV17" s="1">
-        <v>-821.240000</v>
+        <v>-821.24</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>5225.179695</v>
+        <v>5225.1796949999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>1.451439</v>
+        <v>1.4514389999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1743.530000</v>
+        <v>1743.53</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1095.410000</v>
+        <v>-1095.4100000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>5237.598030</v>
+        <v>5237.5980300000001</v>
       </c>
       <c r="CD17" s="1">
         <v>1.454888</v>
       </c>
       <c r="CE17" s="1">
-        <v>2153.970000</v>
+        <v>2153.9699999999998</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1762.790000</v>
+        <v>-1762.79</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>5064.454611</v>
+        <v>5064.4546110000001</v>
       </c>
       <c r="B18" s="1">
         <v>1.406793</v>
       </c>
       <c r="C18" s="1">
-        <v>1144.330000</v>
+        <v>1144.33</v>
       </c>
       <c r="D18" s="1">
-        <v>-257.619000</v>
+        <v>-257.61900000000003</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>5075.172628</v>
+        <v>5075.1726280000003</v>
       </c>
       <c r="G18" s="1">
-        <v>1.409770</v>
+        <v>1.40977</v>
       </c>
       <c r="H18" s="1">
-        <v>1166.410000</v>
+        <v>1166.4100000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-215.878000</v>
+        <v>-215.87799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>5086.039014</v>
       </c>
       <c r="L18" s="1">
-        <v>1.412789</v>
+        <v>1.4127890000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1193.240000</v>
+        <v>1193.24</v>
       </c>
       <c r="N18" s="1">
-        <v>-149.618000</v>
+        <v>-149.61799999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>5096.828985</v>
+        <v>5096.8289850000001</v>
       </c>
       <c r="Q18" s="1">
         <v>1.415786</v>
       </c>
       <c r="R18" s="1">
-        <v>1200.860000</v>
+        <v>1200.8599999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.507000</v>
+        <v>-127.50700000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>5107.251420</v>
+        <v>5107.2514199999996</v>
       </c>
       <c r="V18" s="1">
-        <v>1.418681</v>
+        <v>1.4186810000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1207.930000</v>
+        <v>1207.93</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.560000</v>
+        <v>-106.56</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>5117.710525</v>
+        <v>5117.7105250000004</v>
       </c>
       <c r="AA18" s="1">
         <v>1.421586</v>
       </c>
       <c r="AB18" s="1">
-        <v>1215.070000</v>
+        <v>1215.07</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.443900</v>
+        <v>-89.443899999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>5128.181071</v>
       </c>
       <c r="AF18" s="1">
-        <v>1.424495</v>
+        <v>1.4244950000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1219.540000</v>
+        <v>1219.54</v>
       </c>
       <c r="AH18" s="1">
-        <v>-84.867500</v>
+        <v>-84.867500000000007</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>5138.407617</v>
+        <v>5138.4076169999998</v>
       </c>
       <c r="AK18" s="1">
         <v>1.427335</v>
       </c>
       <c r="AL18" s="1">
-        <v>1226.520000</v>
+        <v>1226.52</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.056200</v>
+        <v>-88.056200000000004</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>5149.375123</v>
+        <v>5149.3751229999998</v>
       </c>
       <c r="AP18" s="1">
         <v>1.430382</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1234.280000</v>
+        <v>1234.28</v>
       </c>
       <c r="AR18" s="1">
-        <v>-99.646000</v>
+        <v>-99.646000000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>5160.298549</v>
+        <v>5160.2985490000001</v>
       </c>
       <c r="AU18" s="1">
         <v>1.433416</v>
       </c>
       <c r="AV18" s="1">
-        <v>1244.080000</v>
+        <v>1244.08</v>
       </c>
       <c r="AW18" s="1">
-        <v>-118.505000</v>
+        <v>-118.505</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>5171.303255</v>
+        <v>5171.3032549999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>1.436473</v>
+        <v>1.4364730000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1252.330000</v>
+        <v>1252.33</v>
       </c>
       <c r="BB18" s="1">
-        <v>-135.579000</v>
+        <v>-135.57900000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>5181.979673</v>
+        <v>5181.9796729999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>1.439439</v>
+        <v>1.4394389999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1291.190000</v>
+        <v>1291.19</v>
       </c>
       <c r="BG18" s="1">
-        <v>-215.745000</v>
+        <v>-215.745</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>5192.960074</v>
+        <v>5192.9600739999996</v>
       </c>
       <c r="BJ18" s="1">
-        <v>1.442489</v>
+        <v>1.4424889999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1358.230000</v>
+        <v>1358.23</v>
       </c>
       <c r="BL18" s="1">
-        <v>-349.977000</v>
+        <v>-349.97699999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>5203.812539</v>
+        <v>5203.8125389999996</v>
       </c>
       <c r="BO18" s="1">
         <v>1.445503</v>
       </c>
       <c r="BP18" s="1">
-        <v>1468.090000</v>
+        <v>1468.09</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-570.493000</v>
+        <v>-570.49300000000005</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>5214.290029</v>
+        <v>5214.2900289999998</v>
       </c>
       <c r="BT18" s="1">
-        <v>1.448414</v>
+        <v>1.4484140000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1595.900000</v>
+        <v>1595.9</v>
       </c>
       <c r="BV18" s="1">
-        <v>-821.321000</v>
+        <v>-821.32100000000003</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>5225.596361</v>
+        <v>5225.5963609999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>1.451555</v>
+        <v>1.4515549999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1743.560000</v>
+        <v>1743.56</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1095.300000</v>
+        <v>-1095.3</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>5238.133214</v>
+        <v>5238.1332140000004</v>
       </c>
       <c r="CD18" s="1">
-        <v>1.455037</v>
+        <v>1.4550369999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2154.710000</v>
+        <v>2154.71</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1765.430000</v>
+        <v>-1765.43</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>5065.107314</v>
+        <v>5065.1073139999999</v>
       </c>
       <c r="B19" s="1">
-        <v>1.406974</v>
+        <v>1.4069739999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1144.640000</v>
+        <v>1144.6400000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-257.553000</v>
+        <v>-257.553</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>5075.552069</v>
+        <v>5075.5520690000003</v>
       </c>
       <c r="G19" s="1">
-        <v>1.409876</v>
+        <v>1.4098759999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1165.950000</v>
+        <v>1165.95</v>
       </c>
       <c r="I19" s="1">
-        <v>-215.746000</v>
+        <v>-215.74600000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>5086.390150</v>
+        <v>5086.3901500000002</v>
       </c>
       <c r="L19" s="1">
-        <v>1.412886</v>
+        <v>1.4128860000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1193.110000</v>
+        <v>1193.1099999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-149.779000</v>
+        <v>-149.779</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>5097.179128</v>
+        <v>5097.1791279999998</v>
       </c>
       <c r="Q19" s="1">
         <v>1.415883</v>
       </c>
       <c r="R19" s="1">
-        <v>1200.890000</v>
+        <v>1200.8900000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.445000</v>
+        <v>-127.44499999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>5107.595610</v>
+        <v>5107.5956100000003</v>
       </c>
       <c r="V19" s="1">
         <v>1.418777</v>
       </c>
       <c r="W19" s="1">
-        <v>1207.840000</v>
+        <v>1207.8399999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.490000</v>
+        <v>-106.49</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>5118.127691</v>
+        <v>5118.1276909999997</v>
       </c>
       <c r="AA19" s="1">
         <v>1.421702</v>
       </c>
       <c r="AB19" s="1">
-        <v>1215.210000</v>
+        <v>1215.21</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.401200</v>
+        <v>-89.401200000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>5128.595763</v>
+        <v>5128.5957630000003</v>
       </c>
       <c r="AF19" s="1">
-        <v>1.424610</v>
+        <v>1.4246099999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1219.580000</v>
+        <v>1219.58</v>
       </c>
       <c r="AH19" s="1">
-        <v>-84.942300</v>
+        <v>-84.942300000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>5138.694769</v>
+        <v>5138.6947689999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>1.427415</v>
+        <v>1.4274150000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1226.500000</v>
+        <v>1226.5</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.040000</v>
+        <v>-88.04</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>5149.570547</v>
+        <v>5149.5705470000003</v>
       </c>
       <c r="AP19" s="1">
         <v>1.430436</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1234.320000</v>
+        <v>1234.32</v>
       </c>
       <c r="AR19" s="1">
-        <v>-99.648500</v>
+        <v>-99.648499999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>5160.661092</v>
+        <v>5160.6610920000003</v>
       </c>
       <c r="AU19" s="1">
-        <v>1.433517</v>
+        <v>1.4335169999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1244.080000</v>
+        <v>1244.08</v>
       </c>
       <c r="AW19" s="1">
-        <v>-118.476000</v>
+        <v>-118.476</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>5171.661366</v>
+        <v>5171.6613660000003</v>
       </c>
       <c r="AZ19" s="1">
-        <v>1.436573</v>
+        <v>1.4365730000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1252.300000</v>
+        <v>1252.3</v>
       </c>
       <c r="BB19" s="1">
-        <v>-135.575000</v>
+        <v>-135.57499999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>5182.336263</v>
+        <v>5182.3362630000001</v>
       </c>
       <c r="BE19" s="1">
         <v>1.439538</v>
       </c>
       <c r="BF19" s="1">
-        <v>1291.200000</v>
+        <v>1291.2</v>
       </c>
       <c r="BG19" s="1">
-        <v>-215.804000</v>
+        <v>-215.804</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>5193.710552</v>
+        <v>5193.7105519999996</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1.442697</v>
+        <v>1.4426969999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1358.200000</v>
+        <v>1358.2</v>
       </c>
       <c r="BL19" s="1">
-        <v>-349.989000</v>
+        <v>-349.98899999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>5204.208346</v>
+        <v>5204.2083460000003</v>
       </c>
       <c r="BO19" s="1">
         <v>1.445613</v>
       </c>
       <c r="BP19" s="1">
-        <v>1468.090000</v>
+        <v>1468.09</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-570.445000</v>
+        <v>-570.44500000000005</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>5214.727500</v>
+        <v>5214.7275</v>
       </c>
       <c r="BT19" s="1">
-        <v>1.448535</v>
+        <v>1.4485349999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1595.920000</v>
+        <v>1595.92</v>
       </c>
       <c r="BV19" s="1">
-        <v>-821.299000</v>
+        <v>-821.29899999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>5226.043726</v>
+        <v>5226.0437259999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>1.451679</v>
+        <v>1.4516789999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1743.500000</v>
+        <v>1743.5</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1095.260000</v>
+        <v>-1095.26</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>5238.984358</v>
+        <v>5238.9843579999997</v>
       </c>
       <c r="CD19" s="1">
         <v>1.455273</v>
       </c>
       <c r="CE19" s="1">
-        <v>2153.670000</v>
+        <v>2153.67</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1763.620000</v>
+        <v>-1763.62</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>5065.480306</v>
+        <v>5065.4803060000004</v>
       </c>
       <c r="B20" s="1">
-        <v>1.407078</v>
+        <v>1.4070780000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1144.490000</v>
+        <v>1144.49</v>
       </c>
       <c r="D20" s="1">
-        <v>-257.717000</v>
+        <v>-257.71699999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>5075.897284</v>
+        <v>5075.8972839999997</v>
       </c>
       <c r="G20" s="1">
-        <v>1.409971</v>
+        <v>1.4099710000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1166.130000</v>
+        <v>1166.1300000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-216.086000</v>
+        <v>-216.08600000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>5086.735367</v>
+        <v>5086.7353670000002</v>
       </c>
       <c r="L20" s="1">
         <v>1.412982</v>
       </c>
       <c r="M20" s="1">
-        <v>1193.520000</v>
+        <v>1193.52</v>
       </c>
       <c r="N20" s="1">
-        <v>-149.713000</v>
+        <v>-149.71299999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>5097.523848</v>
+        <v>5097.5238479999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>1.415979</v>
+        <v>1.4159790000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1200.910000</v>
+        <v>1200.9100000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.445000</v>
+        <v>-127.44499999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>5108.017210</v>
+        <v>5108.01721</v>
       </c>
       <c r="V20" s="1">
-        <v>1.418894</v>
+        <v>1.4188940000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1207.910000</v>
+        <v>1207.9100000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.420000</v>
+        <v>-106.42</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>5118.410380</v>
+        <v>5118.4103800000003</v>
       </c>
       <c r="AA20" s="1">
         <v>1.421781</v>
       </c>
       <c r="AB20" s="1">
-        <v>1215.080000</v>
+        <v>1215.08</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.486000</v>
+        <v>-89.486000000000004</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>5128.882413</v>
+        <v>5128.8824130000003</v>
       </c>
       <c r="AF20" s="1">
-        <v>1.424690</v>
+        <v>1.42469</v>
       </c>
       <c r="AG20" s="1">
-        <v>1219.590000</v>
+        <v>1219.5899999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-84.920400</v>
+        <v>-84.920400000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>5139.044944</v>
+        <v>5139.0449440000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>1.427512</v>
+        <v>1.4275119999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1226.510000</v>
+        <v>1226.51</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.079900</v>
+        <v>-88.079899999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>5149.928690</v>
+        <v>5149.9286899999997</v>
       </c>
       <c r="AP20" s="1">
         <v>1.430536</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1234.300000</v>
+        <v>1234.3</v>
       </c>
       <c r="AR20" s="1">
-        <v>-99.655700</v>
+        <v>-99.655699999999996</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>5161.023695</v>
+        <v>5161.0236949999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>1.433618</v>
+        <v>1.4336180000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1244.060000</v>
+        <v>1244.06</v>
       </c>
       <c r="AW20" s="1">
-        <v>-118.508000</v>
+        <v>-118.508</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>5172.378116</v>
+        <v>5172.3781159999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>1.436772</v>
+        <v>1.4367719999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1252.300000</v>
+        <v>1252.3</v>
       </c>
       <c r="BB20" s="1">
-        <v>-135.595000</v>
+        <v>-135.595</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>5183.060950</v>
+        <v>5183.06095</v>
       </c>
       <c r="BE20" s="1">
-        <v>1.439739</v>
+        <v>1.4397390000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1291.200000</v>
+        <v>1291.2</v>
       </c>
       <c r="BG20" s="1">
-        <v>-215.737000</v>
+        <v>-215.73699999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>5194.111815</v>
+        <v>5194.1118150000002</v>
       </c>
       <c r="BJ20" s="1">
         <v>1.442809</v>
       </c>
       <c r="BK20" s="1">
-        <v>1358.250000</v>
+        <v>1358.25</v>
       </c>
       <c r="BL20" s="1">
-        <v>-350.013000</v>
+        <v>-350.01299999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>5204.629450</v>
+        <v>5204.6294500000004</v>
       </c>
       <c r="BO20" s="1">
-        <v>1.445730</v>
+        <v>1.44573</v>
       </c>
       <c r="BP20" s="1">
-        <v>1468.100000</v>
+        <v>1468.1</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-570.440000</v>
+        <v>-570.44000000000005</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>5215.158028</v>
+        <v>5215.1580279999998</v>
       </c>
       <c r="BT20" s="1">
         <v>1.448655</v>
       </c>
       <c r="BU20" s="1">
-        <v>1595.940000</v>
+        <v>1595.94</v>
       </c>
       <c r="BV20" s="1">
-        <v>-821.322000</v>
+        <v>-821.322</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>5226.772844</v>
+        <v>5226.7728440000001</v>
       </c>
       <c r="BY20" s="1">
         <v>1.451881</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1743.430000</v>
+        <v>1743.43</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1095.350000</v>
+        <v>-1095.3499999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>5239.214029</v>
+        <v>5239.2140289999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>1.455337</v>
+        <v>1.4553370000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2154.260000</v>
+        <v>2154.2600000000002</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1763.620000</v>
+        <v>-1763.62</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>5065.826017</v>
+        <v>5065.8260170000003</v>
       </c>
       <c r="B21" s="1">
-        <v>1.407174</v>
+        <v>1.4071739999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1144.360000</v>
+        <v>1144.3599999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-257.724000</v>
+        <v>-257.72399999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>5076.242531</v>
+        <v>5076.2425309999999</v>
       </c>
       <c r="G21" s="1">
         <v>1.410067</v>
       </c>
       <c r="H21" s="1">
-        <v>1166.100000</v>
+        <v>1166.0999999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-216.152000</v>
+        <v>-216.15199999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>5087.154031</v>
@@ -5394,904 +5810,904 @@
         <v>1.413098</v>
       </c>
       <c r="M21" s="1">
-        <v>1193.540000</v>
+        <v>1193.54</v>
       </c>
       <c r="N21" s="1">
-        <v>-150.047000</v>
+        <v>-150.047</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>5097.940983</v>
+        <v>5097.9409830000004</v>
       </c>
       <c r="Q21" s="1">
-        <v>1.416095</v>
+        <v>1.4160950000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1200.900000</v>
+        <v>1200.9000000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.417000</v>
+        <v>-127.417</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>5108.304426</v>
+        <v>5108.3044259999997</v>
       </c>
       <c r="V21" s="1">
         <v>1.418973</v>
       </c>
       <c r="W21" s="1">
-        <v>1208.000000</v>
+        <v>1208</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.575000</v>
+        <v>-106.575</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>5118.762287</v>
+        <v>5118.7622869999996</v>
       </c>
       <c r="AA21" s="1">
         <v>1.421878</v>
       </c>
       <c r="AB21" s="1">
-        <v>1215.000000</v>
+        <v>1215</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.380700</v>
+        <v>-89.380700000000004</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>5129.227133</v>
+        <v>5129.2271330000003</v>
       </c>
       <c r="AF21" s="1">
         <v>1.424785</v>
       </c>
       <c r="AG21" s="1">
-        <v>1219.580000</v>
+        <v>1219.58</v>
       </c>
       <c r="AH21" s="1">
-        <v>-84.917700</v>
+        <v>-84.917699999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>5139.393715</v>
+        <v>5139.3937150000002</v>
       </c>
       <c r="AK21" s="1">
-        <v>1.427609</v>
+        <v>1.4276089999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1226.500000</v>
+        <v>1226.5</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.062700</v>
+        <v>-88.062700000000007</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>5150.649345</v>
+        <v>5150.6493449999998</v>
       </c>
       <c r="AP21" s="1">
         <v>1.430736</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1234.290000</v>
+        <v>1234.29</v>
       </c>
       <c r="AR21" s="1">
-        <v>-99.652000</v>
+        <v>-99.652000000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>5161.759730</v>
+        <v>5161.7597299999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>1.433822</v>
+        <v>1.4338219999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1244.050000</v>
+        <v>1244.05</v>
       </c>
       <c r="AW21" s="1">
-        <v>-118.502000</v>
+        <v>-118.502</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>5172.736196</v>
+        <v>5172.7361959999998</v>
       </c>
       <c r="AZ21" s="1">
         <v>1.436871</v>
       </c>
       <c r="BA21" s="1">
-        <v>1252.290000</v>
+        <v>1252.29</v>
       </c>
       <c r="BB21" s="1">
-        <v>-135.582000</v>
+        <v>-135.58199999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>5183.461224</v>
+        <v>5183.4612239999997</v>
       </c>
       <c r="BE21" s="1">
-        <v>1.439850</v>
+        <v>1.4398500000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1291.230000</v>
+        <v>1291.23</v>
       </c>
       <c r="BG21" s="1">
-        <v>-215.781000</v>
+        <v>-215.78100000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>5194.487255</v>
       </c>
       <c r="BJ21" s="1">
-        <v>1.442913</v>
+        <v>1.4429129999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1358.260000</v>
+        <v>1358.26</v>
       </c>
       <c r="BL21" s="1">
-        <v>-350.008000</v>
+        <v>-350.00799999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>5205.325373</v>
+        <v>5205.3253729999997</v>
       </c>
       <c r="BO21" s="1">
         <v>1.445924</v>
       </c>
       <c r="BP21" s="1">
-        <v>1468.120000</v>
+        <v>1468.12</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-570.480000</v>
+        <v>-570.48</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>5215.881231</v>
+        <v>5215.8812310000003</v>
       </c>
       <c r="BT21" s="1">
-        <v>1.448856</v>
+        <v>1.4488559999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1595.990000</v>
+        <v>1595.99</v>
       </c>
       <c r="BV21" s="1">
-        <v>-821.169000</v>
+        <v>-821.16899999999998</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>5226.890396</v>
+        <v>5226.8903959999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>1.451914</v>
+        <v>1.4519139999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1743.470000</v>
+        <v>1743.47</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1095.350000</v>
+        <v>-1095.3499999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>5239.736283</v>
+        <v>5239.7362830000002</v>
       </c>
       <c r="CD21" s="1">
-        <v>1.455482</v>
+        <v>1.4554819999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2154.110000</v>
+        <v>2154.11</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1764.970000</v>
+        <v>-1764.97</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>5066.244176</v>
+        <v>5066.2441760000002</v>
       </c>
       <c r="B22" s="1">
-        <v>1.407290</v>
+        <v>1.4072899999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1144.300000</v>
+        <v>1144.3</v>
       </c>
       <c r="D22" s="1">
-        <v>-257.966000</v>
+        <v>-257.96600000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>5076.661156</v>
+        <v>5076.6611560000001</v>
       </c>
       <c r="G22" s="1">
-        <v>1.410184</v>
+        <v>1.4101840000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1166.120000</v>
+        <v>1166.1199999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-216.077000</v>
+        <v>-216.077</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>5087.443654</v>
+        <v>5087.4436539999997</v>
       </c>
       <c r="L22" s="1">
         <v>1.413179</v>
       </c>
       <c r="M22" s="1">
-        <v>1193.670000</v>
+        <v>1193.67</v>
       </c>
       <c r="N22" s="1">
-        <v>-149.690000</v>
+        <v>-149.69</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>5098.234614</v>
       </c>
       <c r="Q22" s="1">
-        <v>1.416176</v>
+        <v>1.4161760000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1200.930000</v>
+        <v>1200.93</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.447000</v>
+        <v>-127.447</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>5108.648616</v>
+        <v>5108.6486160000004</v>
       </c>
       <c r="V22" s="1">
-        <v>1.419069</v>
+        <v>1.4190689999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1207.840000</v>
+        <v>1207.8399999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.541000</v>
+        <v>-106.541</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>5119.107259</v>
+        <v>5119.1072590000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>1.421974</v>
+        <v>1.4219740000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1215.070000</v>
+        <v>1215.07</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.349700</v>
+        <v>-89.349699999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>5129.571357</v>
+        <v>5129.5713569999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>1.424881</v>
+        <v>1.4248810000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1219.580000</v>
+        <v>1219.58</v>
       </c>
       <c r="AH22" s="1">
-        <v>-84.917000</v>
+        <v>-84.917000000000002</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>5140.091535</v>
+        <v>5140.0915349999996</v>
       </c>
       <c r="AK22" s="1">
-        <v>1.427803</v>
+        <v>1.4278029999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1226.480000</v>
+        <v>1226.48</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.074000</v>
+        <v>-88.073999999999998</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>5151.037216</v>
+        <v>5151.0372159999997</v>
       </c>
       <c r="AP22" s="1">
         <v>1.430844</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1234.270000</v>
+        <v>1234.27</v>
       </c>
       <c r="AR22" s="1">
-        <v>-99.647900</v>
+        <v>-99.647900000000007</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>5162.141845</v>
+        <v>5162.1418450000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>1.433928</v>
+        <v>1.4339280000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1244.040000</v>
+        <v>1244.04</v>
       </c>
       <c r="AW22" s="1">
-        <v>-118.494000</v>
+        <v>-118.494</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>5173.097779</v>
+        <v>5173.0977789999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>1.436972</v>
+        <v>1.4369719999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1252.330000</v>
+        <v>1252.33</v>
       </c>
       <c r="BB22" s="1">
-        <v>-135.588000</v>
+        <v>-135.58799999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>5184.137237</v>
+        <v>5184.1372369999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>1.440038</v>
+        <v>1.4400379999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1291.200000</v>
+        <v>1291.2</v>
       </c>
       <c r="BG22" s="1">
-        <v>-215.766000</v>
+        <v>-215.76599999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>5195.169255</v>
+        <v>5195.1692549999998</v>
       </c>
       <c r="BJ22" s="1">
         <v>1.443103</v>
       </c>
       <c r="BK22" s="1">
-        <v>1358.230000</v>
+        <v>1358.23</v>
       </c>
       <c r="BL22" s="1">
-        <v>-350.002000</v>
+        <v>-350.00200000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>5205.460248</v>
+        <v>5205.4602480000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>1.445961</v>
+        <v>1.4459610000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1468.110000</v>
+        <v>1468.11</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-570.473000</v>
+        <v>-570.47299999999996</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>5216.002716</v>
       </c>
       <c r="BT22" s="1">
-        <v>1.448890</v>
+        <v>1.44889</v>
       </c>
       <c r="BU22" s="1">
-        <v>1595.940000</v>
+        <v>1595.94</v>
       </c>
       <c r="BV22" s="1">
-        <v>-821.279000</v>
+        <v>-821.279</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>5227.336797</v>
+        <v>5227.3367969999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>1.452038</v>
+        <v>1.4520379999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1743.520000</v>
+        <v>1743.52</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1095.340000</v>
+        <v>-1095.3399999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>5240.251441</v>
+        <v>5240.2514410000003</v>
       </c>
       <c r="CD22" s="1">
-        <v>1.455625</v>
+        <v>1.4556249999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>2156.470000</v>
+        <v>2156.4699999999998</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1764.730000</v>
+        <v>-1764.73</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>5066.531360</v>
+        <v>5066.5313599999999</v>
       </c>
       <c r="B23" s="1">
-        <v>1.407370</v>
+        <v>1.40737</v>
       </c>
       <c r="C23" s="1">
-        <v>1144.580000</v>
+        <v>1144.58</v>
       </c>
       <c r="D23" s="1">
-        <v>-257.770000</v>
+        <v>-257.77</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>5076.940866</v>
+        <v>5076.9408659999999</v>
       </c>
       <c r="G23" s="1">
         <v>1.410261</v>
       </c>
       <c r="H23" s="1">
-        <v>1165.750000</v>
+        <v>1165.75</v>
       </c>
       <c r="I23" s="1">
-        <v>-216.187000</v>
+        <v>-216.18700000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>5087.791876</v>
+        <v>5087.7918760000002</v>
       </c>
       <c r="L23" s="1">
         <v>1.413276</v>
       </c>
       <c r="M23" s="1">
-        <v>1193.510000</v>
+        <v>1193.51</v>
       </c>
       <c r="N23" s="1">
-        <v>-149.571000</v>
+        <v>-149.571</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>5098.624471</v>
+        <v>5098.6244710000001</v>
       </c>
       <c r="Q23" s="1">
         <v>1.416285</v>
       </c>
       <c r="R23" s="1">
-        <v>1200.910000</v>
+        <v>1200.9100000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.467000</v>
+        <v>-127.467</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>5108.991848</v>
+        <v>5108.9918479999997</v>
       </c>
       <c r="V23" s="1">
-        <v>1.419164</v>
+        <v>1.4191640000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1207.880000</v>
+        <v>1207.8800000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.520000</v>
+        <v>-106.52</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>5119.802682</v>
+        <v>5119.8026819999995</v>
       </c>
       <c r="AA23" s="1">
         <v>1.422167</v>
       </c>
       <c r="AB23" s="1">
-        <v>1215.200000</v>
+        <v>1215.2</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.433300</v>
+        <v>-89.433300000000003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>5130.257324</v>
+        <v>5130.2573240000002</v>
       </c>
       <c r="AF23" s="1">
         <v>1.425071</v>
       </c>
       <c r="AG23" s="1">
-        <v>1219.620000</v>
+        <v>1219.6199999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-84.899000</v>
+        <v>-84.899000000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>5140.436752</v>
+        <v>5140.4367519999996</v>
       </c>
       <c r="AK23" s="1">
         <v>1.427899</v>
       </c>
       <c r="AL23" s="1">
-        <v>1226.530000</v>
+        <v>1226.53</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.069400</v>
+        <v>-88.069400000000002</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>5151.397844</v>
+        <v>5151.3978440000001</v>
       </c>
       <c r="AP23" s="1">
         <v>1.430944</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1234.310000</v>
+        <v>1234.31</v>
       </c>
       <c r="AR23" s="1">
-        <v>-99.649800</v>
+        <v>-99.649799999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>5162.506248</v>
+        <v>5162.5062479999997</v>
       </c>
       <c r="AU23" s="1">
-        <v>1.434030</v>
+        <v>1.4340299999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1244.050000</v>
+        <v>1244.05</v>
       </c>
       <c r="AW23" s="1">
-        <v>-118.503000</v>
+        <v>-118.503</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>5173.762916</v>
+        <v>5173.7629159999997</v>
       </c>
       <c r="AZ23" s="1">
-        <v>1.437156</v>
+        <v>1.4371560000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1252.300000</v>
+        <v>1252.3</v>
       </c>
       <c r="BB23" s="1">
-        <v>-135.613000</v>
+        <v>-135.613</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>5184.554404</v>
+        <v>5184.5544040000004</v>
       </c>
       <c r="BE23" s="1">
-        <v>1.440154</v>
+        <v>1.4401539999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1291.170000</v>
+        <v>1291.17</v>
       </c>
       <c r="BG23" s="1">
-        <v>-215.750000</v>
+        <v>-215.75</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>5195.279398</v>
+        <v>5195.2793979999997</v>
       </c>
       <c r="BJ23" s="1">
         <v>1.443133</v>
       </c>
       <c r="BK23" s="1">
-        <v>1358.230000</v>
+        <v>1358.23</v>
       </c>
       <c r="BL23" s="1">
-        <v>-350.012000</v>
+        <v>-350.012</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>5205.871928</v>
+        <v>5205.8719279999996</v>
       </c>
       <c r="BO23" s="1">
-        <v>1.446076</v>
+        <v>1.4460759999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1468.100000</v>
+        <v>1468.1</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-570.436000</v>
+        <v>-570.43600000000004</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>5216.438735</v>
+        <v>5216.4387349999997</v>
       </c>
       <c r="BT23" s="1">
         <v>1.449011</v>
       </c>
       <c r="BU23" s="1">
-        <v>1596.020000</v>
+        <v>1596.02</v>
       </c>
       <c r="BV23" s="1">
-        <v>-821.090000</v>
+        <v>-821.09</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>5227.767820</v>
+        <v>5227.76782</v>
       </c>
       <c r="BY23" s="1">
-        <v>1.452158</v>
+        <v>1.4521580000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1743.480000</v>
+        <v>1743.48</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1095.340000</v>
+        <v>-1095.3399999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>5240.770938</v>
+        <v>5240.7709379999997</v>
       </c>
       <c r="CD23" s="1">
-        <v>1.455770</v>
+        <v>1.45577</v>
       </c>
       <c r="CE23" s="1">
-        <v>2155.700000</v>
+        <v>2155.6999999999998</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1763.170000</v>
+        <v>-1763.17</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>5066.872578</v>
+        <v>5066.8725780000004</v>
       </c>
       <c r="B24" s="1">
         <v>1.407465</v>
       </c>
       <c r="C24" s="1">
-        <v>1144.480000</v>
+        <v>1144.48</v>
       </c>
       <c r="D24" s="1">
-        <v>-257.706000</v>
+        <v>-257.70600000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>5077.284594</v>
+        <v>5077.2845939999997</v>
       </c>
       <c r="G24" s="1">
-        <v>1.410357</v>
+        <v>1.4103570000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1166.150000</v>
+        <v>1166.1500000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-215.704000</v>
+        <v>-215.70400000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>5088.138547</v>
+        <v>5088.1385469999996</v>
       </c>
       <c r="L24" s="1">
-        <v>1.413372</v>
+        <v>1.4133720000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1193.860000</v>
+        <v>1193.8599999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-149.541000</v>
+        <v>-149.541</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>5099.248965</v>
+        <v>5099.2489649999998</v>
       </c>
       <c r="Q24" s="1">
         <v>1.416458</v>
       </c>
       <c r="R24" s="1">
-        <v>1200.860000</v>
+        <v>1200.8599999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.512000</v>
+        <v>-127.512</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>5109.678818</v>
+        <v>5109.6788180000003</v>
       </c>
       <c r="V24" s="1">
-        <v>1.419355</v>
+        <v>1.4193549999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1207.850000</v>
+        <v>1207.8499999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.572000</v>
+        <v>-106.572</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>5120.152362</v>
+        <v>5120.1523619999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>1.422265</v>
+        <v>1.4222649999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1215.020000</v>
+        <v>1215.02</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.408100</v>
+        <v>-89.408100000000005</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>5130.601579</v>
+        <v>5130.6015790000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>1.425167</v>
+        <v>1.4251670000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1219.610000</v>
+        <v>1219.6099999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-84.925700</v>
+        <v>-84.925700000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>5140.788383</v>
+        <v>5140.7883830000001</v>
       </c>
       <c r="AK24" s="1">
         <v>1.427997</v>
       </c>
       <c r="AL24" s="1">
-        <v>1226.520000</v>
+        <v>1226.52</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.061100</v>
+        <v>-88.061099999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>5152.065919</v>
+        <v>5152.0659189999997</v>
       </c>
       <c r="AP24" s="1">
-        <v>1.431129</v>
+        <v>1.4311290000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1234.270000</v>
+        <v>1234.27</v>
       </c>
       <c r="AR24" s="1">
-        <v>-99.636900</v>
+        <v>-99.636899999999997</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>5163.174964</v>
+        <v>5163.1749639999998</v>
       </c>
       <c r="AU24" s="1">
         <v>1.434215</v>
       </c>
       <c r="AV24" s="1">
-        <v>1244.060000</v>
+        <v>1244.06</v>
       </c>
       <c r="AW24" s="1">
-        <v>-118.494000</v>
+        <v>-118.494</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>5174.173114</v>
+        <v>5174.1731140000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>1.437270</v>
+        <v>1.43727</v>
       </c>
       <c r="BA24" s="1">
-        <v>1252.290000</v>
+        <v>1252.29</v>
       </c>
       <c r="BB24" s="1">
-        <v>-135.563000</v>
+        <v>-135.56299999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>5184.912026</v>
@@ -6300,105 +6716,105 @@
         <v>1.440253</v>
       </c>
       <c r="BF24" s="1">
-        <v>1291.200000</v>
+        <v>1291.2</v>
       </c>
       <c r="BG24" s="1">
-        <v>-215.768000</v>
+        <v>-215.768</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>5195.639462</v>
+        <v>5195.6394620000001</v>
       </c>
       <c r="BJ24" s="1">
         <v>1.443233</v>
       </c>
       <c r="BK24" s="1">
-        <v>1358.250000</v>
+        <v>1358.25</v>
       </c>
       <c r="BL24" s="1">
-        <v>-350.029000</v>
+        <v>-350.029</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>5206.264795</v>
       </c>
       <c r="BO24" s="1">
-        <v>1.446185</v>
+        <v>1.4461850000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1468.040000</v>
+        <v>1468.04</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-570.482000</v>
+        <v>-570.48199999999997</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>5216.866746</v>
+        <v>5216.8667459999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>1.449130</v>
+        <v>1.44913</v>
       </c>
       <c r="BU24" s="1">
-        <v>1596.020000</v>
+        <v>1596.02</v>
       </c>
       <c r="BV24" s="1">
-        <v>-821.115000</v>
+        <v>-821.11500000000001</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>5228.190444</v>
+        <v>5228.1904439999998</v>
       </c>
       <c r="BY24" s="1">
         <v>1.452275</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1743.440000</v>
+        <v>1743.44</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1095.350000</v>
+        <v>-1095.3499999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>5241.288267</v>
+        <v>5241.2882669999999</v>
       </c>
       <c r="CD24" s="1">
         <v>1.455913</v>
       </c>
       <c r="CE24" s="1">
-        <v>2156.140000</v>
+        <v>2156.14</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1763.000000</v>
+        <v>-1763</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>5067.214815</v>
+        <v>5067.2148150000003</v>
       </c>
       <c r="B25" s="1">
-        <v>1.407560</v>
+        <v>1.4075599999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1144.750000</v>
+        <v>1144.75</v>
       </c>
       <c r="D25" s="1">
-        <v>-257.650000</v>
+        <v>-257.64999999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>5077.629809</v>
@@ -6407,497 +6823,498 @@
         <v>1.410453</v>
       </c>
       <c r="H25" s="1">
-        <v>1165.930000</v>
+        <v>1165.93</v>
       </c>
       <c r="I25" s="1">
-        <v>-216.010000</v>
+        <v>-216.01</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>5088.833443</v>
+        <v>5088.8334430000004</v>
       </c>
       <c r="L25" s="1">
         <v>1.413565</v>
       </c>
       <c r="M25" s="1">
-        <v>1193.610000</v>
+        <v>1193.6099999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.812000</v>
+        <v>-149.81200000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>5099.631385</v>
+        <v>5099.6313849999997</v>
       </c>
       <c r="Q25" s="1">
-        <v>1.416564</v>
+        <v>1.4165639999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1200.890000</v>
+        <v>1200.8900000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.452000</v>
+        <v>-127.452</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>5110.021575</v>
+        <v>5110.0215749999998</v>
       </c>
       <c r="V25" s="1">
-        <v>1.419450</v>
+        <v>1.4194500000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1207.950000</v>
+        <v>1207.95</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.513000</v>
+        <v>-106.51300000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>5120.502505</v>
+        <v>5120.5025050000004</v>
       </c>
       <c r="AA25" s="1">
-        <v>1.422362</v>
+        <v>1.4223619999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1215.100000</v>
+        <v>1215.0999999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.233700</v>
+        <v>-89.233699999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>5130.946312</v>
       </c>
       <c r="AF25" s="1">
-        <v>1.425263</v>
+        <v>1.4252629999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1219.610000</v>
+        <v>1219.6099999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-84.867700</v>
+        <v>-84.867699999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>5141.445581</v>
+        <v>5141.4455809999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>1.428179</v>
+        <v>1.4281790000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1226.500000</v>
+        <v>1226.5</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.082800</v>
+        <v>-88.082800000000006</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>5152.504415</v>
+        <v>5152.5044150000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>1.431251</v>
+        <v>1.4312510000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1234.310000</v>
+        <v>1234.31</v>
       </c>
       <c r="AR25" s="1">
-        <v>-99.628500</v>
+        <v>-99.628500000000003</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>5163.630641</v>
+        <v>5163.6306409999997</v>
       </c>
       <c r="AU25" s="1">
         <v>1.434342</v>
       </c>
       <c r="AV25" s="1">
-        <v>1244.040000</v>
+        <v>1244.04</v>
       </c>
       <c r="AW25" s="1">
-        <v>-118.512000</v>
+        <v>-118.512</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>5174.554531</v>
+        <v>5174.5545309999998</v>
       </c>
       <c r="AZ25" s="1">
         <v>1.437376</v>
       </c>
       <c r="BA25" s="1">
-        <v>1252.300000</v>
+        <v>1252.3</v>
       </c>
       <c r="BB25" s="1">
-        <v>-135.565000</v>
+        <v>-135.565</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>5185.273077</v>
+        <v>5185.2730769999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>1.440354</v>
+        <v>1.4403539999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1291.180000</v>
+        <v>1291.18</v>
       </c>
       <c r="BG25" s="1">
-        <v>-215.749000</v>
+        <v>-215.749</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>5196.014970</v>
+        <v>5196.0149700000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>1.443337</v>
+        <v>1.4433370000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1358.290000</v>
+        <v>1358.29</v>
       </c>
       <c r="BL25" s="1">
-        <v>-349.987000</v>
+        <v>-349.98700000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>5206.688839</v>
+        <v>5206.6888390000004</v>
       </c>
       <c r="BO25" s="1">
         <v>1.446302</v>
       </c>
       <c r="BP25" s="1">
-        <v>1468.120000</v>
+        <v>1468.12</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-570.523000</v>
+        <v>-570.52300000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>5217.709448</v>
+        <v>5217.7094479999996</v>
       </c>
       <c r="BT25" s="1">
-        <v>1.449364</v>
+        <v>1.4493640000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1596.050000</v>
+        <v>1596.05</v>
       </c>
       <c r="BV25" s="1">
-        <v>-820.952000</v>
+        <v>-820.952</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>5228.610563</v>
+        <v>5228.6105630000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>1.452392</v>
+        <v>1.4523919999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1743.370000</v>
+        <v>1743.37</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1095.360000</v>
+        <v>-1095.3599999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>5241.840313</v>
+        <v>5241.8403129999997</v>
       </c>
       <c r="CD25" s="1">
         <v>1.456067</v>
       </c>
       <c r="CE25" s="1">
-        <v>2155.950000</v>
+        <v>2155.9499999999998</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1764.530000</v>
+        <v>-1764.53</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>5067.897337</v>
+        <v>5067.8973370000003</v>
       </c>
       <c r="B26" s="1">
-        <v>1.407749</v>
+        <v>1.4077489999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1144.400000</v>
+        <v>1144.4000000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-257.691000</v>
+        <v>-257.69099999999997</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>5078.319783</v>
+        <v>5078.3197829999999</v>
       </c>
       <c r="G26" s="1">
         <v>1.410644</v>
       </c>
       <c r="H26" s="1">
-        <v>1166.230000</v>
+        <v>1166.23</v>
       </c>
       <c r="I26" s="1">
-        <v>-215.992000</v>
+        <v>-215.99199999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>5089.179155</v>
+        <v>5089.1791549999998</v>
       </c>
       <c r="L26" s="1">
-        <v>1.413661</v>
+        <v>1.4136610000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1193.490000</v>
+        <v>1193.49</v>
       </c>
       <c r="N26" s="1">
-        <v>-149.609000</v>
+        <v>-149.60900000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>5099.983509</v>
+        <v>5099.9835089999997</v>
       </c>
       <c r="Q26" s="1">
-        <v>1.416662</v>
+        <v>1.4166620000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1200.860000</v>
+        <v>1200.8599999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.365000</v>
+        <v>-127.36499999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>5110.366299</v>
+        <v>5110.3662990000003</v>
       </c>
       <c r="V26" s="1">
         <v>1.419546</v>
       </c>
       <c r="W26" s="1">
-        <v>1207.960000</v>
+        <v>1207.96</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.506000</v>
+        <v>-106.506</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>5121.158744</v>
+        <v>5121.1587440000003</v>
       </c>
       <c r="AA26" s="1">
         <v>1.422544</v>
       </c>
       <c r="AB26" s="1">
-        <v>1215.160000</v>
+        <v>1215.1600000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.400700</v>
+        <v>-89.400700000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>5131.589578</v>
+        <v>5131.5895780000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>1.425442</v>
+        <v>1.4254420000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1219.610000</v>
+        <v>1219.6099999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-84.952300</v>
+        <v>-84.952299999999994</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>5141.832989</v>
+        <v>5141.8329890000005</v>
       </c>
       <c r="AK26" s="1">
-        <v>1.428287</v>
+        <v>1.4282870000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1226.490000</v>
+        <v>1226.49</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.036500</v>
+        <v>-88.036500000000004</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>5152.865966</v>
+        <v>5152.8659660000003</v>
       </c>
       <c r="AP26" s="1">
         <v>1.431352</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1234.290000</v>
+        <v>1234.29</v>
       </c>
       <c r="AR26" s="1">
-        <v>-99.652700</v>
+        <v>-99.652699999999996</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>5163.987760</v>
+        <v>5163.98776</v>
       </c>
       <c r="AU26" s="1">
-        <v>1.434441</v>
+        <v>1.4344410000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1244.080000</v>
+        <v>1244.08</v>
       </c>
       <c r="AW26" s="1">
-        <v>-118.496000</v>
+        <v>-118.496</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>5174.914130</v>
+        <v>5174.9141300000001</v>
       </c>
       <c r="AZ26" s="1">
         <v>1.437476</v>
       </c>
       <c r="BA26" s="1">
-        <v>1252.290000</v>
+        <v>1252.29</v>
       </c>
       <c r="BB26" s="1">
-        <v>-135.556000</v>
+        <v>-135.55600000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>5185.695198</v>
+        <v>5185.6951980000003</v>
       </c>
       <c r="BE26" s="1">
-        <v>1.440471</v>
+        <v>1.4404710000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1291.180000</v>
+        <v>1291.18</v>
       </c>
       <c r="BG26" s="1">
-        <v>-215.715000</v>
+        <v>-215.715</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>5196.428624</v>
+        <v>5196.4286240000001</v>
       </c>
       <c r="BJ26" s="1">
         <v>1.443452</v>
       </c>
       <c r="BK26" s="1">
-        <v>1358.210000</v>
+        <v>1358.21</v>
       </c>
       <c r="BL26" s="1">
-        <v>-350.030000</v>
+        <v>-350.03</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>5207.085639</v>
+        <v>5207.0856389999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>1.446413</v>
+        <v>1.4464129999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1468.110000</v>
+        <v>1468.11</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-570.463000</v>
+        <v>-570.46299999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>5218.144440</v>
+        <v>5218.14444</v>
       </c>
       <c r="BT26" s="1">
-        <v>1.449485</v>
+        <v>1.4494849999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1595.970000</v>
+        <v>1595.97</v>
       </c>
       <c r="BV26" s="1">
-        <v>-820.971000</v>
+        <v>-820.971</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>5229.039561</v>
+        <v>5229.0395609999996</v>
       </c>
       <c r="BY26" s="1">
-        <v>1.452511</v>
+        <v>1.4525110000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1743.570000</v>
+        <v>1743.57</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1095.240000</v>
+        <v>-1095.24</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>5242.367924</v>
+        <v>5242.3679240000001</v>
       </c>
       <c r="CD26" s="1">
         <v>1.456213</v>
       </c>
       <c r="CE26" s="1">
-        <v>2155.630000</v>
+        <v>2155.63</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1762.610000</v>
+        <v>-1762.61</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>